--- a/generated_docs/WR_89775268_WeekEnding_071325.xlsx
+++ b/generated_docs/WR_89775268_WeekEnding_071325.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:47 AM</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/13/2025 to 07/13/25</t>
+          <t>07/07/2025 to 07/13/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">

--- a/generated_docs/WR_89775268_WeekEnding_071325.xlsx
+++ b/generated_docs/WR_89775268_WeekEnding_071325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I172"/>
+  <dimension ref="A2:I206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:47 AM</t>
+          <t>Report Generated On: 08/18/2025 09:47 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>26852.12</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="H17" s="13" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -858,7 +858,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
       </c>
       <c r="G23" s="15" t="inlineStr"/>
       <c r="H23" s="16" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -926,7 +926,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -960,7 +960,7 @@
       </c>
       <c r="G25" s="15" t="inlineStr"/>
       <c r="H25" s="16" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -994,7 +994,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>66.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="G27" s="15" t="inlineStr"/>
       <c r="H27" s="16" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C29" s="14" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="D29" s="14" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E29" s="14" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G29" s="15" t="inlineStr"/>
       <c r="H29" s="16" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C31" s="14" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="D31" s="14" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E31" s="14" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="G31" s="15" t="inlineStr"/>
       <c r="H31" s="16" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1198,18 +1198,18 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="14" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B33" s="14" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C33" s="14" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="D33" s="14" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E33" s="14" t="inlineStr">
@@ -1232,18 +1232,18 @@
       </c>
       <c r="G33" s="15" t="inlineStr"/>
       <c r="H33" s="16" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1262,11 +1262,11 @@
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B35" s="14" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C35" s="14" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D35" s="14" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E35" s="14" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="G35" s="15" t="inlineStr"/>
       <c r="H35" s="16" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1334,18 +1334,18 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="14" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B37" s="14" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C37" s="14" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="D37" s="14" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E37" s="14" t="inlineStr">
@@ -1368,18 +1368,18 @@
       </c>
       <c r="G37" s="15" t="inlineStr"/>
       <c r="H37" s="16" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B39" s="14" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C39" s="14" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="D39" s="14" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E39" s="14" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="G39" s="15" t="inlineStr"/>
       <c r="H39" s="16" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -1470,18 +1470,18 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="14" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B41" s="14" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C41" s="14" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="D41" s="14" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E41" s="14" t="inlineStr">
@@ -1504,18 +1504,18 @@
       </c>
       <c r="G41" s="15" t="inlineStr"/>
       <c r="H41" s="16" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="B43" s="14" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C43" s="14" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="D43" s="14" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E43" s="14" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="G43" s="15" t="inlineStr"/>
       <c r="H43" s="16" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1602,22 +1602,22 @@
         </is>
       </c>
       <c r="F44" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>110.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="14" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B45" s="14" t="inlineStr">
         <is>
-          <t>ARR-10-LS</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C45" s="14" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D45" s="14" t="inlineStr">
         <is>
-          <t>ARR,10kV,Line,Arrester Stations</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E45" s="14" t="inlineStr">
@@ -1640,18 +1640,18 @@
       </c>
       <c r="G45" s="15" t="inlineStr"/>
       <c r="H45" s="16" t="n">
-        <v>66.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
@@ -1670,11 +1670,11 @@
         </is>
       </c>
       <c r="F46" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="B47" s="14" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>ARR-10-LS</t>
         </is>
       </c>
       <c r="C47" s="14" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="D47" s="14" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>ARR,10kV,Line,Arrester Stations</t>
         </is>
       </c>
       <c r="E47" s="14" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="G47" s="15" t="inlineStr"/>
       <c r="H47" s="16" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B49" s="14" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C49" s="14" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="D49" s="14" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E49" s="14" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="G49" s="15" t="inlineStr"/>
       <c r="H49" s="16" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B51" s="14" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C51" s="14" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="D51" s="14" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E51" s="14" t="inlineStr">
@@ -1844,134 +1844,134 @@
       </c>
       <c r="G51" s="15" t="inlineStr"/>
       <c r="H51" s="16" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="12" t="inlineStr">
+      <c r="A52" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B52" s="9" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C52" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E52" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F52" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="10" t="inlineStr"/>
+      <c r="H52" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="14" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B53" s="14" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C53" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D53" s="14" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E53" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F53" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="15" t="inlineStr"/>
+      <c r="H53" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="12" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H52" s="13" t="n">
-        <v>4778.380000000001</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="7" t="inlineStr">
+      <c r="H54" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="inlineStr">
         <is>
           <t>Friday (07/11/2025)</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="8" t="inlineStr">
+    <row r="58">
+      <c r="A58" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B56" s="8" t="inlineStr">
+      <c r="B58" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C56" s="8" t="inlineStr">
+      <c r="C58" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D56" s="8" t="inlineStr">
+      <c r="D58" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E56" s="8" t="inlineStr">
+      <c r="E58" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F56" s="8" t="inlineStr">
+      <c r="F58" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G56" s="8" t="inlineStr">
+      <c r="G58" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H56" s="8" t="inlineStr">
+      <c r="H58" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="9" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B57" s="9" t="inlineStr">
-        <is>
-          <t>CNC-SNB-10</t>
-        </is>
-      </c>
-      <c r="C57" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D57" s="9" t="inlineStr">
-        <is>
-          <t>CNC,Splice Non-Tension Bare,#336-#1033</t>
-        </is>
-      </c>
-      <c r="E57" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F57" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G57" s="10" t="inlineStr"/>
-      <c r="H57" s="11" t="n">
-        <v>60.87</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="14" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B58" s="14" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C58" s="14" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D58" s="14" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E58" s="14" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F58" s="15" t="n">
-        <v>676</v>
-      </c>
-      <c r="G58" s="15" t="inlineStr"/>
-      <c r="H58" s="16" t="n">
-        <v>1581.84</v>
       </c>
     </row>
     <row r="59">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="B59" s="9" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>CNC-SNB-10</t>
         </is>
       </c>
       <c r="C59" s="9" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="D59" s="9" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>CNC,Splice Non-Tension Bare,#336-#1033</t>
         </is>
       </c>
       <c r="E59" s="9" t="inlineStr">
@@ -2001,11 +2001,11 @@
         </is>
       </c>
       <c r="F59" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G59" s="10" t="inlineStr"/>
       <c r="H59" s="11" t="n">
-        <v>572.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="B60" s="14" t="inlineStr">
         <is>
-          <t>DEG-10-PNA</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C60" s="14" t="inlineStr">
@@ -2026,20 +2026,20 @@
       </c>
       <c r="D60" s="14" t="inlineStr">
         <is>
-          <t>DEG,1/0,Primary Neutral Al</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E60" s="14" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F60" s="15" t="n">
-        <v>2</v>
+        <v>676</v>
       </c>
       <c r="G60" s="15" t="inlineStr"/>
       <c r="H60" s="16" t="n">
-        <v>572.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="B61" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C61" s="9" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="D61" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E61" s="9" t="inlineStr">
@@ -2069,11 +2069,11 @@
         </is>
       </c>
       <c r="F61" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61" s="10" t="inlineStr"/>
       <c r="H61" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="B62" s="14" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>DEG-10-PNA</t>
         </is>
       </c>
       <c r="C62" s="14" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="D62" s="14" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>DEG,1/0,Primary Neutral Al</t>
         </is>
       </c>
       <c r="E62" s="14" t="inlineStr">
@@ -2103,11 +2103,11 @@
         </is>
       </c>
       <c r="F62" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62" s="15" t="inlineStr"/>
       <c r="H62" s="16" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="B63" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C63" s="9" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="D63" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E63" s="9" t="inlineStr">
@@ -2137,17 +2137,17 @@
         </is>
       </c>
       <c r="F63" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" s="10" t="inlineStr"/>
       <c r="H63" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="14" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B64" s="14" t="inlineStr">
@@ -2175,13 +2175,13 @@
       </c>
       <c r="G64" s="15" t="inlineStr"/>
       <c r="H64" s="16" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B65" s="9" t="inlineStr">
@@ -2209,18 +2209,18 @@
       </c>
       <c r="G65" s="10" t="inlineStr"/>
       <c r="H65" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="14" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B66" s="14" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C66" s="14" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="D66" s="14" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E66" s="14" t="inlineStr">
@@ -2239,22 +2239,22 @@
         </is>
       </c>
       <c r="F66" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66" s="15" t="inlineStr"/>
       <c r="H66" s="16" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B67" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C67" s="9" t="inlineStr">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="D67" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E67" s="9" t="inlineStr">
@@ -2277,18 +2277,18 @@
       </c>
       <c r="G67" s="10" t="inlineStr"/>
       <c r="H67" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="14" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B68" s="14" t="inlineStr">
         <is>
-          <t>ARR-10-LS</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C68" s="14" t="inlineStr">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="D68" s="14" t="inlineStr">
         <is>
-          <t>ARR,10kV,Line,Arrester Stations</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E68" s="14" t="inlineStr">
@@ -2311,18 +2311,18 @@
       </c>
       <c r="G68" s="15" t="inlineStr"/>
       <c r="H68" s="16" t="n">
-        <v>66.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B69" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C69" s="9" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="D69" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E69" s="9" t="inlineStr">
@@ -2345,18 +2345,18 @@
       </c>
       <c r="G69" s="10" t="inlineStr"/>
       <c r="H69" s="11" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="14" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B70" s="14" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C70" s="14" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="D70" s="14" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E70" s="14" t="inlineStr">
@@ -2379,18 +2379,18 @@
       </c>
       <c r="G70" s="15" t="inlineStr"/>
       <c r="H70" s="16" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B71" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C71" s="9" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="D71" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E71" s="9" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="G71" s="10" t="inlineStr"/>
       <c r="H71" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="B72" s="14" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>ARR-10-LS</t>
         </is>
       </c>
       <c r="C72" s="14" t="inlineStr">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="D72" s="14" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>ARR,10kV,Line,Arrester Stations</t>
         </is>
       </c>
       <c r="E72" s="14" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="G72" s="15" t="inlineStr"/>
       <c r="H72" s="16" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="B73" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C73" s="9" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="D73" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E73" s="9" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="G73" s="10" t="inlineStr"/>
       <c r="H73" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="B74" s="14" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C74" s="14" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="D74" s="14" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E74" s="14" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="G74" s="15" t="inlineStr"/>
       <c r="H74" s="16" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="B75" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C75" s="9" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="D75" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E75" s="9" t="inlineStr">
@@ -2549,18 +2549,18 @@
       </c>
       <c r="G75" s="10" t="inlineStr"/>
       <c r="H75" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="14" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B76" s="14" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C76" s="14" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="D76" s="14" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E76" s="14" t="inlineStr">
@@ -2583,18 +2583,18 @@
       </c>
       <c r="G76" s="15" t="inlineStr"/>
       <c r="H76" s="16" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="9" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B77" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C77" s="9" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="D77" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E77" s="9" t="inlineStr">
@@ -2613,22 +2613,22 @@
         </is>
       </c>
       <c r="F77" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77" s="10" t="inlineStr"/>
       <c r="H77" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="14" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B78" s="14" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C78" s="14" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="D78" s="14" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E78" s="14" t="inlineStr">
@@ -2651,18 +2651,18 @@
       </c>
       <c r="G78" s="15" t="inlineStr"/>
       <c r="H78" s="16" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="9" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B79" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C79" s="9" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="D79" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E79" s="9" t="inlineStr">
@@ -2685,18 +2685,18 @@
       </c>
       <c r="G79" s="10" t="inlineStr"/>
       <c r="H79" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="14" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B80" s="14" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C80" s="14" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="D80" s="14" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E80" s="14" t="inlineStr">
@@ -2719,18 +2719,18 @@
       </c>
       <c r="G80" s="15" t="inlineStr"/>
       <c r="H80" s="16" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="9" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B81" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C81" s="9" t="inlineStr">
@@ -2740,7 +2740,7 @@
       </c>
       <c r="D81" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E81" s="9" t="inlineStr">
@@ -2753,18 +2753,18 @@
       </c>
       <c r="G81" s="10" t="inlineStr"/>
       <c r="H81" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="14" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B82" s="14" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C82" s="14" t="inlineStr">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="D82" s="14" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E82" s="14" t="inlineStr">
@@ -2787,18 +2787,18 @@
       </c>
       <c r="G82" s="15" t="inlineStr"/>
       <c r="H82" s="16" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="9" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B83" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C83" s="9" t="inlineStr">
@@ -2808,7 +2808,7 @@
       </c>
       <c r="D83" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E83" s="9" t="inlineStr">
@@ -2821,18 +2821,18 @@
       </c>
       <c r="G83" s="10" t="inlineStr"/>
       <c r="H83" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="14" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B84" s="14" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C84" s="14" t="inlineStr">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="D84" s="14" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E84" s="14" t="inlineStr">
@@ -2855,18 +2855,18 @@
       </c>
       <c r="G84" s="15" t="inlineStr"/>
       <c r="H84" s="16" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B85" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C85" s="9" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="D85" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E85" s="9" t="inlineStr">
@@ -2889,18 +2889,18 @@
       </c>
       <c r="G85" s="10" t="inlineStr"/>
       <c r="H85" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="14" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B86" s="14" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C86" s="14" t="inlineStr">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="D86" s="14" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E86" s="14" t="inlineStr">
@@ -2923,18 +2923,18 @@
       </c>
       <c r="G86" s="15" t="inlineStr"/>
       <c r="H86" s="16" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B87" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C87" s="9" t="inlineStr">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="D87" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E87" s="9" t="inlineStr">
@@ -2957,18 +2957,18 @@
       </c>
       <c r="G87" s="10" t="inlineStr"/>
       <c r="H87" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="14" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B88" s="14" t="inlineStr">
         <is>
-          <t>ARR-10-LS</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C88" s="14" t="inlineStr">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="D88" s="14" t="inlineStr">
         <is>
-          <t>ARR,10kV,Line,Arrester Stations</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E88" s="14" t="inlineStr">
@@ -2991,18 +2991,18 @@
       </c>
       <c r="G88" s="15" t="inlineStr"/>
       <c r="H88" s="16" t="n">
-        <v>66.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="9" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B89" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C89" s="9" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="D89" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E89" s="9" t="inlineStr">
@@ -3025,18 +3025,18 @@
       </c>
       <c r="G89" s="10" t="inlineStr"/>
       <c r="H89" s="11" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="14" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B90" s="14" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C90" s="14" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="D90" s="14" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E90" s="14" t="inlineStr">
@@ -3059,18 +3059,18 @@
       </c>
       <c r="G90" s="15" t="inlineStr"/>
       <c r="H90" s="16" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="9" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B91" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C91" s="9" t="inlineStr">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="D91" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E91" s="9" t="inlineStr">
@@ -3093,18 +3093,18 @@
       </c>
       <c r="G91" s="10" t="inlineStr"/>
       <c r="H91" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="14" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B92" s="14" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C92" s="14" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="D92" s="14" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E92" s="14" t="inlineStr">
@@ -3127,18 +3127,18 @@
       </c>
       <c r="G92" s="15" t="inlineStr"/>
       <c r="H92" s="16" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="9" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B93" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C93" s="9" t="inlineStr">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="D93" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E93" s="9" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="G93" s="10" t="inlineStr"/>
       <c r="H93" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="B94" s="14" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>ARR-10-LS</t>
         </is>
       </c>
       <c r="C94" s="14" t="inlineStr">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="D94" s="14" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>ARR,10kV,Line,Arrester Stations</t>
         </is>
       </c>
       <c r="E94" s="14" t="inlineStr">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="G94" s="15" t="inlineStr"/>
       <c r="H94" s="16" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="B95" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C95" s="9" t="inlineStr">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="D95" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E95" s="9" t="inlineStr">
@@ -3229,18 +3229,18 @@
       </c>
       <c r="G95" s="10" t="inlineStr"/>
       <c r="H95" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="14" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B96" s="14" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C96" s="14" t="inlineStr">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="D96" s="14" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E96" s="14" t="inlineStr">
@@ -3263,18 +3263,18 @@
       </c>
       <c r="G96" s="15" t="inlineStr"/>
       <c r="H96" s="16" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B97" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C97" s="9" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="D97" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E97" s="9" t="inlineStr">
@@ -3297,18 +3297,18 @@
       </c>
       <c r="G97" s="10" t="inlineStr"/>
       <c r="H97" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="14" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B98" s="14" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C98" s="14" t="inlineStr">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="D98" s="14" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E98" s="14" t="inlineStr">
@@ -3331,18 +3331,18 @@
       </c>
       <c r="G98" s="15" t="inlineStr"/>
       <c r="H98" s="16" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B99" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C99" s="9" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="D99" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E99" s="9" t="inlineStr">
@@ -3361,17 +3361,17 @@
         </is>
       </c>
       <c r="F99" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G99" s="10" t="inlineStr"/>
       <c r="H99" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="14" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B100" s="14" t="inlineStr">
@@ -3399,13 +3399,13 @@
       </c>
       <c r="G100" s="15" t="inlineStr"/>
       <c r="H100" s="16" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="9" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B101" s="9" t="inlineStr">
@@ -3433,13 +3433,13 @@
       </c>
       <c r="G101" s="10" t="inlineStr"/>
       <c r="H101" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="14" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B102" s="14" t="inlineStr">
@@ -3467,13 +3467,13 @@
       </c>
       <c r="G102" s="15" t="inlineStr"/>
       <c r="H102" s="16" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="9" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B103" s="9" t="inlineStr">
@@ -3501,18 +3501,18 @@
       </c>
       <c r="G103" s="10" t="inlineStr"/>
       <c r="H103" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="14" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B104" s="14" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C104" s="14" t="inlineStr">
@@ -3522,7 +3522,7 @@
       </c>
       <c r="D104" s="14" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E104" s="14" t="inlineStr">
@@ -3535,18 +3535,18 @@
       </c>
       <c r="G104" s="15" t="inlineStr"/>
       <c r="H104" s="16" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B105" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C105" s="9" t="inlineStr">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="D105" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E105" s="9" t="inlineStr">
@@ -3569,18 +3569,18 @@
       </c>
       <c r="G105" s="10" t="inlineStr"/>
       <c r="H105" s="11" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="14" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B106" s="14" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C106" s="14" t="inlineStr">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="D106" s="14" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E106" s="14" t="inlineStr">
@@ -3603,18 +3603,18 @@
       </c>
       <c r="G106" s="15" t="inlineStr"/>
       <c r="H106" s="16" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B107" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C107" s="9" t="inlineStr">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="D107" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E107" s="9" t="inlineStr">
@@ -3637,18 +3637,18 @@
       </c>
       <c r="G107" s="10" t="inlineStr"/>
       <c r="H107" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="14" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B108" s="14" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C108" s="14" t="inlineStr">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="D108" s="14" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E108" s="14" t="inlineStr">
@@ -3671,18 +3671,18 @@
       </c>
       <c r="G108" s="15" t="inlineStr"/>
       <c r="H108" s="16" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B109" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C109" s="9" t="inlineStr">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="D109" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E109" s="9" t="inlineStr">
@@ -3705,28 +3705,28 @@
       </c>
       <c r="G109" s="10" t="inlineStr"/>
       <c r="H109" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="14" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B110" s="14" t="inlineStr">
         <is>
-          <t>SVC-10-TP-AAA-RS</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C110" s="14" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D110" s="14" t="inlineStr">
         <is>
-          <t>SVC,1/0,Trip,All Alum,Res</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E110" s="14" t="inlineStr">
@@ -3739,18 +3739,18 @@
       </c>
       <c r="G110" s="15" t="inlineStr"/>
       <c r="H110" s="16" t="n">
-        <v>195.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B111" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG10</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C111" s="9" t="inlineStr">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="D111" s="9" t="inlineStr">
         <is>
-          <t>SVD, Service Grip, 1/0</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E111" s="9" t="inlineStr">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="G111" s="10" t="inlineStr"/>
       <c r="H111" s="11" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -3784,17 +3784,17 @@
       </c>
       <c r="B112" s="14" t="inlineStr">
         <is>
-          <t>XFR-25-72-120-1B</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C112" s="14" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D112" s="14" t="inlineStr">
         <is>
-          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E112" s="14" t="inlineStr">
@@ -3807,28 +3807,28 @@
       </c>
       <c r="G112" s="15" t="inlineStr"/>
       <c r="H112" s="16" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B113" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C113" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D113" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E113" s="9" t="inlineStr">
@@ -3841,28 +3841,28 @@
       </c>
       <c r="G113" s="10" t="inlineStr"/>
       <c r="H113" s="11" t="n">
-        <v>17.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="14" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B114" s="14" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
       <c r="C114" s="14" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D114" s="14" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E114" s="14" t="inlineStr">
@@ -3875,13 +3875,13 @@
       </c>
       <c r="G114" s="15" t="inlineStr"/>
       <c r="H114" s="16" t="n">
-        <v>6.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B115" s="9" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="C115" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D115" s="9" t="inlineStr">
@@ -3909,28 +3909,28 @@
       </c>
       <c r="G115" s="10" t="inlineStr"/>
       <c r="H115" s="11" t="n">
-        <v>60.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="14" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B116" s="14" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C116" s="14" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D116" s="14" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E116" s="14" t="inlineStr">
@@ -3939,32 +3939,32 @@
         </is>
       </c>
       <c r="F116" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G116" s="15" t="inlineStr"/>
       <c r="H116" s="16" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B117" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C117" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D117" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E117" s="9" t="inlineStr">
@@ -3977,28 +3977,28 @@
       </c>
       <c r="G117" s="10" t="inlineStr"/>
       <c r="H117" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="14" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B118" s="14" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C118" s="14" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D118" s="14" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E118" s="14" t="inlineStr">
@@ -4011,13 +4011,13 @@
       </c>
       <c r="G118" s="15" t="inlineStr"/>
       <c r="H118" s="16" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B119" s="9" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="C119" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D119" s="9" t="inlineStr">
@@ -4045,28 +4045,28 @@
       </c>
       <c r="G119" s="10" t="inlineStr"/>
       <c r="H119" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="14" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B120" s="14" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>SVC-10-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C120" s="14" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D120" s="14" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>SVC,1/0,Trip,All Alum,Res</t>
         </is>
       </c>
       <c r="E120" s="14" t="inlineStr">
@@ -4079,62 +4079,62 @@
       </c>
       <c r="G120" s="15" t="inlineStr"/>
       <c r="H120" s="16" t="n">
-        <v>26.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="9" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B121" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>SVC-VA</t>
         </is>
       </c>
       <c r="C121" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D121" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>SVC-Virtual Asset Capitalization</t>
         </is>
       </c>
       <c r="E121" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F121" s="10" t="n">
-        <v>446</v>
+        <v>1</v>
       </c>
       <c r="G121" s="10" t="inlineStr"/>
       <c r="H121" s="11" t="n">
-        <v>414.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="14" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B122" s="14" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SVD-SG10</t>
         </is>
       </c>
       <c r="C122" s="14" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D122" s="14" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SVD, Service Grip, 1/0</t>
         </is>
       </c>
       <c r="E122" s="14" t="inlineStr">
@@ -4147,28 +4147,28 @@
       </c>
       <c r="G122" s="15" t="inlineStr"/>
       <c r="H122" s="16" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="9" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B123" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>XFR-25-72-120-1B</t>
         </is>
       </c>
       <c r="C123" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D123" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E123" s="9" t="inlineStr">
@@ -4181,18 +4181,18 @@
       </c>
       <c r="G123" s="10" t="inlineStr"/>
       <c r="H123" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="14" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B124" s="14" t="inlineStr">
         <is>
-          <t>POL-35-5</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C124" s="14" t="inlineStr">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="D124" s="14" t="inlineStr">
         <is>
-          <t>Pole,35ft,Class 5</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E124" s="14" t="inlineStr">
@@ -4215,18 +4215,18 @@
       </c>
       <c r="G124" s="15" t="inlineStr"/>
       <c r="H124" s="16" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="9" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B125" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C125" s="9" t="inlineStr">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="D125" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E125" s="9" t="inlineStr">
@@ -4249,18 +4249,18 @@
       </c>
       <c r="G125" s="10" t="inlineStr"/>
       <c r="H125" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="14" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B126" s="14" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-T1-C</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C126" s="14" t="inlineStr">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="D126" s="14" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E126" s="14" t="inlineStr">
@@ -4279,22 +4279,22 @@
         </is>
       </c>
       <c r="F126" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G126" s="15" t="inlineStr"/>
       <c r="H126" s="16" t="n">
-        <v>57.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="9" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B127" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C127" s="9" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="D127" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E127" s="9" t="inlineStr">
@@ -4317,18 +4317,18 @@
       </c>
       <c r="G127" s="10" t="inlineStr"/>
       <c r="H127" s="11" t="n">
-        <v>17.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="14" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B128" s="14" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C128" s="14" t="inlineStr">
@@ -4338,7 +4338,7 @@
       </c>
       <c r="D128" s="14" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E128" s="14" t="inlineStr">
@@ -4351,18 +4351,18 @@
       </c>
       <c r="G128" s="15" t="inlineStr"/>
       <c r="H128" s="16" t="n">
-        <v>6.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="9" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B129" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-3-P</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C129" s="9" t="inlineStr">
@@ -4372,31 +4372,31 @@
       </c>
       <c r="D129" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E129" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F129" s="10" t="n">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="G129" s="10" t="inlineStr"/>
       <c r="H129" s="11" t="n">
-        <v>94.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="14" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B130" s="14" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C130" s="14" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="D130" s="14" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E130" s="14" t="inlineStr">
@@ -4419,18 +4419,18 @@
       </c>
       <c r="G130" s="15" t="inlineStr"/>
       <c r="H130" s="16" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="9" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B131" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C131" s="9" t="inlineStr">
@@ -4440,7 +4440,7 @@
       </c>
       <c r="D131" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E131" s="9" t="inlineStr">
@@ -4453,18 +4453,18 @@
       </c>
       <c r="G131" s="10" t="inlineStr"/>
       <c r="H131" s="11" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="14" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B132" s="14" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C132" s="14" t="inlineStr">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="D132" s="14" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E132" s="14" t="inlineStr">
@@ -4487,18 +4487,18 @@
       </c>
       <c r="G132" s="15" t="inlineStr"/>
       <c r="H132" s="16" t="n">
-        <v>60.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="9" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B133" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C133" s="9" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="D133" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E133" s="9" t="inlineStr">
@@ -4517,22 +4517,22 @@
         </is>
       </c>
       <c r="F133" s="10" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G133" s="10" t="inlineStr"/>
       <c r="H133" s="11" t="n">
-        <v>71.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="14" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B134" s="14" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C134" s="14" t="inlineStr">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="D134" s="14" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E134" s="14" t="inlineStr">
@@ -4555,18 +4555,18 @@
       </c>
       <c r="G134" s="15" t="inlineStr"/>
       <c r="H134" s="16" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="9" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B135" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C135" s="9" t="inlineStr">
@@ -4576,31 +4576,31 @@
       </c>
       <c r="D135" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E135" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F135" s="10" t="n">
-        <v>1</v>
+        <v>446</v>
       </c>
       <c r="G135" s="10" t="inlineStr"/>
       <c r="H135" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="14" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B136" s="14" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C136" s="14" t="inlineStr">
@@ -4610,7 +4610,7 @@
       </c>
       <c r="D136" s="14" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E136" s="14" t="inlineStr">
@@ -4623,18 +4623,18 @@
       </c>
       <c r="G136" s="15" t="inlineStr"/>
       <c r="H136" s="16" t="n">
-        <v>26.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="9" t="inlineStr">
         <is>
-          <t>Point 38</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B137" s="9" t="inlineStr">
         <is>
-          <t>XFR-25-72-120-1B</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C137" s="9" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="D137" s="9" t="inlineStr">
         <is>
-          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E137" s="9" t="inlineStr">
@@ -4657,18 +4657,18 @@
       </c>
       <c r="G137" s="10" t="inlineStr"/>
       <c r="H137" s="11" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="14" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B138" s="14" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-T1-C</t>
+          <t>POL-35-5</t>
         </is>
       </c>
       <c r="C138" s="14" t="inlineStr">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="D138" s="14" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+          <t>Pole,35ft,Class 5</t>
         </is>
       </c>
       <c r="E138" s="14" t="inlineStr">
@@ -4691,18 +4691,18 @@
       </c>
       <c r="G138" s="15" t="inlineStr"/>
       <c r="H138" s="16" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="9" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B139" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C139" s="9" t="inlineStr">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="D139" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E139" s="9" t="inlineStr">
@@ -4725,18 +4725,18 @@
       </c>
       <c r="G139" s="10" t="inlineStr"/>
       <c r="H139" s="11" t="n">
-        <v>35.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="14" t="inlineStr">
         <is>
-          <t>Point 39</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B140" s="14" t="inlineStr">
         <is>
-          <t>POL-35-5</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C140" s="14" t="inlineStr">
@@ -4746,7 +4746,7 @@
       </c>
       <c r="D140" s="14" t="inlineStr">
         <is>
-          <t>Pole,35ft,Class 5</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E140" s="14" t="inlineStr">
@@ -4755,892 +4755,892 @@
         </is>
       </c>
       <c r="F140" s="15" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G140" s="15" t="inlineStr"/>
       <c r="H140" s="16" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="12" t="inlineStr">
+      <c r="A141" s="9" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B141" s="9" t="inlineStr">
+        <is>
+          <t>ANC-DHM-10-84-T1-C</t>
+        </is>
+      </c>
+      <c r="C141" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D141" s="9" t="inlineStr">
+        <is>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+        </is>
+      </c>
+      <c r="E141" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F141" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G141" s="10" t="inlineStr"/>
+      <c r="H141" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="14" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B142" s="14" t="inlineStr">
+        <is>
+          <t>BKT-AC18-F-C</t>
+        </is>
+      </c>
+      <c r="C142" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D142" s="14" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+        </is>
+      </c>
+      <c r="E142" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F142" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G142" s="15" t="inlineStr"/>
+      <c r="H142" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="9" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B143" s="9" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C143" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D143" s="9" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E143" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F143" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G143" s="10" t="inlineStr"/>
+      <c r="H143" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="14" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B144" s="14" t="inlineStr">
+        <is>
+          <t>CND-S2</t>
+        </is>
+      </c>
+      <c r="C144" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D144" s="14" t="inlineStr">
+        <is>
+          <t>CND,Stirrup #2</t>
+        </is>
+      </c>
+      <c r="E144" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F144" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G144" s="15" t="inlineStr"/>
+      <c r="H144" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="9" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B145" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-3-P</t>
+        </is>
+      </c>
+      <c r="C145" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D145" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
+        </is>
+      </c>
+      <c r="E145" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F145" s="10" t="n">
+        <v>153</v>
+      </c>
+      <c r="G145" s="10" t="inlineStr"/>
+      <c r="H145" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="14" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B146" s="14" t="inlineStr">
+        <is>
+          <t>DEC-20AL-C</t>
+        </is>
+      </c>
+      <c r="C146" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D146" s="14" t="inlineStr">
+        <is>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+        </is>
+      </c>
+      <c r="E146" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F146" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" s="15" t="inlineStr"/>
+      <c r="H146" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="9" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B147" s="9" t="inlineStr">
+        <is>
+          <t>EQL-1-4-C-2-S-X-C</t>
+        </is>
+      </c>
+      <c r="C147" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D147" s="9" t="inlineStr">
+        <is>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+        </is>
+      </c>
+      <c r="E147" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F147" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G147" s="10" t="inlineStr"/>
+      <c r="H147" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="14" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B148" s="14" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C148" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D148" s="14" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E148" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F148" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" s="15" t="inlineStr"/>
+      <c r="H148" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="9" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B149" s="9" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C149" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D149" s="9" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E149" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F149" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G149" s="10" t="inlineStr"/>
+      <c r="H149" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="14" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B150" s="14" t="inlineStr">
+        <is>
+          <t>GYF-38-78W-I-C</t>
+        </is>
+      </c>
+      <c r="C150" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D150" s="14" t="inlineStr">
+        <is>
+          <t>GYF,3/8,78Wire mt,Insulator Adder,Corros</t>
+        </is>
+      </c>
+      <c r="E150" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F150" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G150" s="15" t="inlineStr"/>
+      <c r="H150" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="9" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B151" s="9" t="inlineStr">
+        <is>
+          <t>GYF-38-D-42P-EP-C</t>
+        </is>
+      </c>
+      <c r="C151" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D151" s="9" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+        </is>
+      </c>
+      <c r="E151" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F151" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G151" s="10" t="inlineStr"/>
+      <c r="H151" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="14" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B152" s="14" t="inlineStr">
+        <is>
+          <t>GYW-38C</t>
+        </is>
+      </c>
+      <c r="C152" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D152" s="14" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+        </is>
+      </c>
+      <c r="E152" s="14" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F152" s="15" t="n">
+        <v>80</v>
+      </c>
+      <c r="G152" s="15" t="inlineStr"/>
+      <c r="H152" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="9" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B153" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C153" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D153" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E153" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F153" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" s="10" t="inlineStr"/>
+      <c r="H153" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="14" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B154" s="14" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C154" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D154" s="14" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E154" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F154" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G154" s="15" t="inlineStr"/>
+      <c r="H154" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="9" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B155" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C155" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D155" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E155" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F155" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G155" s="10" t="inlineStr"/>
+      <c r="H155" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="14" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B156" s="14" t="inlineStr">
+        <is>
+          <t>SAA-DE-20-C</t>
+        </is>
+      </c>
+      <c r="C156" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D156" s="14" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+        </is>
+      </c>
+      <c r="E156" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F156" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G156" s="15" t="inlineStr"/>
+      <c r="H156" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="9" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B157" s="9" t="inlineStr">
+        <is>
+          <t>XCO-27-100-8-C</t>
+        </is>
+      </c>
+      <c r="C157" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D157" s="9" t="inlineStr">
+        <is>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+        </is>
+      </c>
+      <c r="E157" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F157" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G157" s="10" t="inlineStr"/>
+      <c r="H157" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="14" t="inlineStr">
+        <is>
+          <t>Point 38</t>
+        </is>
+      </c>
+      <c r="B158" s="14" t="inlineStr">
+        <is>
+          <t>XFR-25-72-120-1B</t>
+        </is>
+      </c>
+      <c r="C158" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D158" s="14" t="inlineStr">
+        <is>
+          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
+        </is>
+      </c>
+      <c r="E158" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F158" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G158" s="15" t="inlineStr"/>
+      <c r="H158" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="9" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B159" s="9" t="inlineStr">
+        <is>
+          <t>ANC-DHM-10-84-T1-C</t>
+        </is>
+      </c>
+      <c r="C159" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D159" s="9" t="inlineStr">
+        <is>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+        </is>
+      </c>
+      <c r="E159" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F159" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G159" s="10" t="inlineStr"/>
+      <c r="H159" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="14" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B160" s="14" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C160" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D160" s="14" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E160" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F160" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G160" s="15" t="inlineStr"/>
+      <c r="H160" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="9" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B161" s="9" t="inlineStr">
+        <is>
+          <t>GYF-38-D-78P-EP-C</t>
+        </is>
+      </c>
+      <c r="C161" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D161" s="9" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+        </is>
+      </c>
+      <c r="E161" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F161" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G161" s="10" t="inlineStr"/>
+      <c r="H161" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="14" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B162" s="14" t="inlineStr">
+        <is>
+          <t>GYW-38C</t>
+        </is>
+      </c>
+      <c r="C162" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D162" s="14" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+        </is>
+      </c>
+      <c r="E162" s="14" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F162" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="G162" s="15" t="inlineStr"/>
+      <c r="H162" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="9" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B163" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C163" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D163" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E163" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F163" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G163" s="10" t="inlineStr"/>
+      <c r="H163" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="14" t="inlineStr">
+        <is>
+          <t>Point 39</t>
+        </is>
+      </c>
+      <c r="B164" s="14" t="inlineStr">
+        <is>
+          <t>POL-35-5</t>
+        </is>
+      </c>
+      <c r="C164" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D164" s="14" t="inlineStr">
+        <is>
+          <t>Pole,35ft,Class 5</t>
+        </is>
+      </c>
+      <c r="E164" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F164" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G164" s="15" t="inlineStr"/>
+      <c r="H164" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="12" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H141" s="13" t="n">
-        <v>13259.41000000001</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="7" t="inlineStr">
+      <c r="H165" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="7" t="inlineStr">
         <is>
           <t>Sunday (07/13/2025)</t>
         </is>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="8" t="inlineStr">
+    <row r="169">
+      <c r="A169" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B145" s="8" t="inlineStr">
+      <c r="B169" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C145" s="8" t="inlineStr">
+      <c r="C169" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D145" s="8" t="inlineStr">
+      <c r="D169" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E145" s="8" t="inlineStr">
+      <c r="E169" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F145" s="8" t="inlineStr">
+      <c r="F169" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G145" s="8" t="inlineStr">
+      <c r="G169" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H145" s="8" t="inlineStr">
+      <c r="H169" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="9" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B146" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C146" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D146" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E146" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F146" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G146" s="10" t="inlineStr"/>
-      <c r="H146" s="11" t="n">
-        <v>110.36</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="14" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B147" s="14" t="inlineStr">
-        <is>
-          <t>CNC-SNB-2</t>
-        </is>
-      </c>
-      <c r="C147" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D147" s="14" t="inlineStr">
-        <is>
-          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
-        </is>
-      </c>
-      <c r="E147" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F147" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G147" s="15" t="inlineStr"/>
-      <c r="H147" s="16" t="n">
-        <v>3.69</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="9" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B148" s="9" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C148" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D148" s="9" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
-        </is>
-      </c>
-      <c r="E148" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F148" s="10" t="n">
-        <v>682</v>
-      </c>
-      <c r="G148" s="10" t="inlineStr"/>
-      <c r="H148" s="11" t="n">
-        <v>634.26</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="14" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B149" s="14" t="inlineStr">
-        <is>
-          <t>DEC-20AL-C</t>
-        </is>
-      </c>
-      <c r="C149" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D149" s="14" t="inlineStr">
-        <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
-        </is>
-      </c>
-      <c r="E149" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F149" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G149" s="15" t="inlineStr"/>
-      <c r="H149" s="16" t="n">
-        <v>190.3</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="9" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B150" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C150" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D150" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E150" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F150" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G150" s="10" t="inlineStr"/>
-      <c r="H150" s="11" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="14" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B151" s="14" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C151" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D151" s="14" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E151" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F151" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G151" s="15" t="inlineStr"/>
-      <c r="H151" s="16" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="9" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B152" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-4</t>
-        </is>
-      </c>
-      <c r="C152" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D152" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 4</t>
-        </is>
-      </c>
-      <c r="E152" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F152" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G152" s="10" t="inlineStr"/>
-      <c r="H152" s="11" t="n">
-        <v>198.88</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="14" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B153" s="14" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C153" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D153" s="14" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E153" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F153" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G153" s="15" t="inlineStr"/>
-      <c r="H153" s="16" t="n">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="9" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B154" s="9" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C154" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D154" s="9" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E154" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F154" s="10" t="n">
-        <v>686</v>
-      </c>
-      <c r="G154" s="10" t="inlineStr"/>
-      <c r="H154" s="11" t="n">
-        <v>1605.24</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="14" t="inlineStr">
-        <is>
-          <t>Point 04</t>
-        </is>
-      </c>
-      <c r="B155" s="14" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C155" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D155" s="14" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
-        </is>
-      </c>
-      <c r="E155" s="14" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F155" s="15" t="n">
-        <v>684</v>
-      </c>
-      <c r="G155" s="15" t="inlineStr"/>
-      <c r="H155" s="16" t="n">
-        <v>636.12</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="9" t="inlineStr">
-        <is>
-          <t>Point 04</t>
-        </is>
-      </c>
-      <c r="B156" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C156" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D156" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E156" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F156" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G156" s="10" t="inlineStr"/>
-      <c r="H156" s="11" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="14" t="inlineStr">
-        <is>
-          <t>Point 04</t>
-        </is>
-      </c>
-      <c r="B157" s="14" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C157" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D157" s="14" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E157" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F157" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G157" s="15" t="inlineStr"/>
-      <c r="H157" s="16" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="9" t="inlineStr">
-        <is>
-          <t>Point 04</t>
-        </is>
-      </c>
-      <c r="B158" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-4</t>
-        </is>
-      </c>
-      <c r="C158" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D158" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 4</t>
-        </is>
-      </c>
-      <c r="E158" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F158" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G158" s="10" t="inlineStr"/>
-      <c r="H158" s="11" t="n">
-        <v>198.88</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="14" t="inlineStr">
-        <is>
-          <t>Point 04</t>
-        </is>
-      </c>
-      <c r="B159" s="14" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C159" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D159" s="14" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E159" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F159" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G159" s="15" t="inlineStr"/>
-      <c r="H159" s="16" t="n">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B160" s="9" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C160" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D160" s="9" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E160" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F160" s="10" t="n">
-        <v>688</v>
-      </c>
-      <c r="G160" s="10" t="inlineStr"/>
-      <c r="H160" s="11" t="n">
-        <v>1609.92</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="14" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B161" s="14" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C161" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D161" s="14" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
-        </is>
-      </c>
-      <c r="E161" s="14" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F161" s="15" t="n">
-        <v>684</v>
-      </c>
-      <c r="G161" s="15" t="inlineStr"/>
-      <c r="H161" s="16" t="n">
-        <v>636.12</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="9" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B162" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C162" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D162" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E162" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F162" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G162" s="10" t="inlineStr"/>
-      <c r="H162" s="11" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="14" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B163" s="14" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C163" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D163" s="14" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E163" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F163" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G163" s="15" t="inlineStr"/>
-      <c r="H163" s="16" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="9" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B164" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-4</t>
-        </is>
-      </c>
-      <c r="C164" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D164" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 4</t>
-        </is>
-      </c>
-      <c r="E164" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F164" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G164" s="10" t="inlineStr"/>
-      <c r="H164" s="11" t="n">
-        <v>198.88</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="14" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B165" s="14" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C165" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D165" s="14" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E165" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F165" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G165" s="15" t="inlineStr"/>
-      <c r="H165" s="16" t="n">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="9" t="inlineStr">
-        <is>
-          <t>Point 08</t>
-        </is>
-      </c>
-      <c r="B166" s="9" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C166" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D166" s="9" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
-        </is>
-      </c>
-      <c r="E166" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F166" s="10" t="n">
-        <v>694</v>
-      </c>
-      <c r="G166" s="10" t="inlineStr"/>
-      <c r="H166" s="11" t="n">
-        <v>645.42</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="14" t="inlineStr">
-        <is>
-          <t>Point 08</t>
-        </is>
-      </c>
-      <c r="B167" s="14" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C167" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D167" s="14" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E167" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F167" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G167" s="15" t="inlineStr"/>
-      <c r="H167" s="16" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="9" t="inlineStr">
-        <is>
-          <t>Point 08</t>
-        </is>
-      </c>
-      <c r="B168" s="9" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C168" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D168" s="9" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E168" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F168" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G168" s="10" t="inlineStr"/>
-      <c r="H168" s="11" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="14" t="inlineStr">
-        <is>
-          <t>Point 08</t>
-        </is>
-      </c>
-      <c r="B169" s="14" t="inlineStr">
-        <is>
-          <t>POL-40-4</t>
-        </is>
-      </c>
-      <c r="C169" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D169" s="14" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 4</t>
-        </is>
-      </c>
-      <c r="E169" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F169" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G169" s="15" t="inlineStr"/>
-      <c r="H169" s="16" t="n">
-        <v>198.88</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B170" s="9" t="inlineStr">
@@ -5650,7 +5650,7 @@
       </c>
       <c r="C170" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D170" s="9" t="inlineStr">
@@ -5664,22 +5664,22 @@
         </is>
       </c>
       <c r="F170" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G170" s="10" t="inlineStr"/>
       <c r="H170" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="14" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B171" s="14" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C171" s="14" t="inlineStr">
@@ -5689,51 +5689,1207 @@
       </c>
       <c r="D171" s="14" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E171" s="14" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F171" s="15" t="n">
-        <v>683</v>
+        <v>6</v>
       </c>
       <c r="G171" s="15" t="inlineStr"/>
       <c r="H171" s="16" t="n">
-        <v>1598.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="12" t="inlineStr">
+      <c r="A172" s="9" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B172" s="9" t="inlineStr">
+        <is>
+          <t>CNC-SNB-2</t>
+        </is>
+      </c>
+      <c r="C172" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D172" s="9" t="inlineStr">
+        <is>
+          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
+        </is>
+      </c>
+      <c r="E172" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F172" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G172" s="10" t="inlineStr"/>
+      <c r="H172" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="14" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B173" s="14" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C173" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D173" s="14" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E173" s="14" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F173" s="15" t="n">
+        <v>682</v>
+      </c>
+      <c r="G173" s="15" t="inlineStr"/>
+      <c r="H173" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="9" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B174" s="9" t="inlineStr">
+        <is>
+          <t>DEC-20AL-C</t>
+        </is>
+      </c>
+      <c r="C174" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D174" s="9" t="inlineStr">
+        <is>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+        </is>
+      </c>
+      <c r="E174" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F174" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G174" s="10" t="inlineStr"/>
+      <c r="H174" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="14" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B175" s="14" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C175" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D175" s="14" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E175" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F175" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G175" s="15" t="inlineStr"/>
+      <c r="H175" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="9" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B176" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C176" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D176" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E176" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F176" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G176" s="10" t="inlineStr"/>
+      <c r="H176" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="14" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B177" s="14" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C177" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D177" s="14" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E177" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F177" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G177" s="15" t="inlineStr"/>
+      <c r="H177" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="9" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B178" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C178" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D178" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E178" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F178" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G178" s="10" t="inlineStr"/>
+      <c r="H178" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="14" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B179" s="14" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C179" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D179" s="14" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E179" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F179" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G179" s="15" t="inlineStr"/>
+      <c r="H179" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="9" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B180" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C180" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D180" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E180" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F180" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G180" s="10" t="inlineStr"/>
+      <c r="H180" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="14" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B181" s="14" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C181" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D181" s="14" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E181" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F181" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="G181" s="15" t="inlineStr"/>
+      <c r="H181" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="9" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B182" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C182" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D182" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E182" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F182" s="10" t="n">
+        <v>686</v>
+      </c>
+      <c r="G182" s="10" t="inlineStr"/>
+      <c r="H182" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="14" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B183" s="14" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C183" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D183" s="14" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E183" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F183" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="G183" s="15" t="inlineStr"/>
+      <c r="H183" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="9" t="inlineStr">
+        <is>
+          <t>Point 04</t>
+        </is>
+      </c>
+      <c r="B184" s="9" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C184" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D184" s="9" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E184" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F184" s="10" t="n">
+        <v>684</v>
+      </c>
+      <c r="G184" s="10" t="inlineStr"/>
+      <c r="H184" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="14" t="inlineStr">
+        <is>
+          <t>Point 04</t>
+        </is>
+      </c>
+      <c r="B185" s="14" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C185" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D185" s="14" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E185" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F185" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G185" s="15" t="inlineStr"/>
+      <c r="H185" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="9" t="inlineStr">
+        <is>
+          <t>Point 04</t>
+        </is>
+      </c>
+      <c r="B186" s="9" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C186" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D186" s="9" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E186" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F186" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G186" s="10" t="inlineStr"/>
+      <c r="H186" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="14" t="inlineStr">
+        <is>
+          <t>Point 04</t>
+        </is>
+      </c>
+      <c r="B187" s="14" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C187" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D187" s="14" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E187" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F187" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G187" s="15" t="inlineStr"/>
+      <c r="H187" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="9" t="inlineStr">
+        <is>
+          <t>Point 04</t>
+        </is>
+      </c>
+      <c r="B188" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C188" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D188" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E188" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F188" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G188" s="10" t="inlineStr"/>
+      <c r="H188" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="14" t="inlineStr">
+        <is>
+          <t>Point 04</t>
+        </is>
+      </c>
+      <c r="B189" s="14" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C189" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D189" s="14" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E189" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F189" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="G189" s="15" t="inlineStr"/>
+      <c r="H189" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B190" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C190" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D190" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E190" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F190" s="10" t="n">
+        <v>688</v>
+      </c>
+      <c r="G190" s="10" t="inlineStr"/>
+      <c r="H190" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="14" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B191" s="14" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C191" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D191" s="14" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E191" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F191" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="G191" s="15" t="inlineStr"/>
+      <c r="H191" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B192" s="9" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C192" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D192" s="9" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E192" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F192" s="10" t="n">
+        <v>684</v>
+      </c>
+      <c r="G192" s="10" t="inlineStr"/>
+      <c r="H192" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="14" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B193" s="14" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C193" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D193" s="14" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E193" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F193" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G193" s="15" t="inlineStr"/>
+      <c r="H193" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B194" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C194" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D194" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E194" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F194" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G194" s="10" t="inlineStr"/>
+      <c r="H194" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="14" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B195" s="14" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C195" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D195" s="14" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E195" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F195" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G195" s="15" t="inlineStr"/>
+      <c r="H195" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B196" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C196" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D196" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E196" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F196" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G196" s="10" t="inlineStr"/>
+      <c r="H196" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="14" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B197" s="14" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C197" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D197" s="14" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E197" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F197" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G197" s="15" t="inlineStr"/>
+      <c r="H197" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B198" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C198" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D198" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E198" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F198" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G198" s="10" t="inlineStr"/>
+      <c r="H198" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="14" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B199" s="14" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C199" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D199" s="14" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E199" s="14" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F199" s="15" t="n">
+        <v>694</v>
+      </c>
+      <c r="G199" s="15" t="inlineStr"/>
+      <c r="H199" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="9" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B200" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C200" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D200" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E200" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F200" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G200" s="10" t="inlineStr"/>
+      <c r="H200" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="14" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B201" s="14" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C201" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D201" s="14" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E201" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F201" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G201" s="15" t="inlineStr"/>
+      <c r="H201" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="9" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B202" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C202" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D202" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E202" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F202" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G202" s="10" t="inlineStr"/>
+      <c r="H202" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="14" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B203" s="14" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C203" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D203" s="14" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E203" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F203" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G203" s="15" t="inlineStr"/>
+      <c r="H203" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="9" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B204" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C204" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D204" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E204" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F204" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G204" s="10" t="inlineStr"/>
+      <c r="H204" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="14" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B205" s="14" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C205" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D205" s="14" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E205" s="14" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F205" s="15" t="n">
+        <v>683</v>
+      </c>
+      <c r="G205" s="15" t="inlineStr"/>
+      <c r="H205" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="12" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H172" s="13" t="n">
-        <v>8782.609999999999</v>
+      <c r="H206" s="13" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A141:G141"/>
-    <mergeCell ref="A144:H144"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A55:H55"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A206:G206"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A172:G172"/>
+    <mergeCell ref="A54:G54"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A165:G165"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A168:H168"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_89775268_WeekEnding_071325.xlsx
+++ b/generated_docs/WR_89775268_WeekEnding_071325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I206"/>
+  <dimension ref="A2:I172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:47 PM</t>
+          <t>Report Generated On: 08/26/2025 10:00 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>26852.12</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P40</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="17">
@@ -775,7 +771,7 @@
         </is>
       </c>
       <c r="H17" s="13" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="20">
@@ -858,7 +854,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +888,7 @@
       </c>
       <c r="G23" s="15" t="inlineStr"/>
       <c r="H23" s="16" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="24">
@@ -926,7 +922,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="25">
@@ -960,7 +956,7 @@
       </c>
       <c r="G25" s="15" t="inlineStr"/>
       <c r="H25" s="16" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="26">
@@ -994,7 +990,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>66.72</v>
       </c>
     </row>
     <row r="27">
@@ -1028,7 +1024,7 @@
       </c>
       <c r="G27" s="15" t="inlineStr"/>
       <c r="H27" s="16" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="28">
@@ -1039,7 +1035,7 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
@@ -1049,7 +1045,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1062,7 +1058,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="29">
@@ -1073,7 +1069,7 @@
       </c>
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C29" s="14" t="inlineStr">
@@ -1083,7 +1079,7 @@
       </c>
       <c r="D29" s="14" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E29" s="14" t="inlineStr">
@@ -1096,7 +1092,7 @@
       </c>
       <c r="G29" s="15" t="inlineStr"/>
       <c r="H29" s="16" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="30">
@@ -1107,7 +1103,7 @@
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1117,7 +1113,7 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1130,7 +1126,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="31">
@@ -1141,7 +1137,7 @@
       </c>
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C31" s="14" t="inlineStr">
@@ -1151,7 +1147,7 @@
       </c>
       <c r="D31" s="14" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E31" s="14" t="inlineStr">
@@ -1164,7 +1160,7 @@
       </c>
       <c r="G31" s="15" t="inlineStr"/>
       <c r="H31" s="16" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="32">
@@ -1175,7 +1171,7 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1185,7 +1181,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1198,18 +1194,18 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="14" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B33" s="14" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C33" s="14" t="inlineStr">
@@ -1219,7 +1215,7 @@
       </c>
       <c r="D33" s="14" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E33" s="14" t="inlineStr">
@@ -1232,18 +1228,18 @@
       </c>
       <c r="G33" s="15" t="inlineStr"/>
       <c r="H33" s="16" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1253,7 +1249,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1262,11 +1258,11 @@
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="35">
@@ -1277,7 +1273,7 @@
       </c>
       <c r="B35" s="14" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C35" s="14" t="inlineStr">
@@ -1287,7 +1283,7 @@
       </c>
       <c r="D35" s="14" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E35" s="14" t="inlineStr">
@@ -1300,7 +1296,7 @@
       </c>
       <c r="G35" s="15" t="inlineStr"/>
       <c r="H35" s="16" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="36">
@@ -1311,7 +1307,7 @@
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1321,7 +1317,7 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1334,18 +1330,18 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="14" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B37" s="14" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C37" s="14" t="inlineStr">
@@ -1355,7 +1351,7 @@
       </c>
       <c r="D37" s="14" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E37" s="14" t="inlineStr">
@@ -1368,18 +1364,18 @@
       </c>
       <c r="G37" s="15" t="inlineStr"/>
       <c r="H37" s="16" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
@@ -1389,7 +1385,7 @@
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
@@ -1402,7 +1398,7 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="39">
@@ -1413,7 +1409,7 @@
       </c>
       <c r="B39" s="14" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C39" s="14" t="inlineStr">
@@ -1423,7 +1419,7 @@
       </c>
       <c r="D39" s="14" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E39" s="14" t="inlineStr">
@@ -1436,7 +1432,7 @@
       </c>
       <c r="G39" s="15" t="inlineStr"/>
       <c r="H39" s="16" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="40">
@@ -1447,7 +1443,7 @@
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
@@ -1457,7 +1453,7 @@
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -1470,18 +1466,18 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="14" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B41" s="14" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C41" s="14" t="inlineStr">
@@ -1491,7 +1487,7 @@
       </c>
       <c r="D41" s="14" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E41" s="14" t="inlineStr">
@@ -1504,18 +1500,18 @@
       </c>
       <c r="G41" s="15" t="inlineStr"/>
       <c r="H41" s="16" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
@@ -1525,7 +1521,7 @@
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
@@ -1538,7 +1534,7 @@
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="43">
@@ -1549,7 +1545,7 @@
       </c>
       <c r="B43" s="14" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C43" s="14" t="inlineStr">
@@ -1559,7 +1555,7 @@
       </c>
       <c r="D43" s="14" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E43" s="14" t="inlineStr">
@@ -1572,7 +1568,7 @@
       </c>
       <c r="G43" s="15" t="inlineStr"/>
       <c r="H43" s="16" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="44">
@@ -1583,7 +1579,7 @@
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
@@ -1593,7 +1589,7 @@
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1602,22 +1598,22 @@
         </is>
       </c>
       <c r="F44" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>0</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="14" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B45" s="14" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>ARR-10-LS</t>
         </is>
       </c>
       <c r="C45" s="14" t="inlineStr">
@@ -1627,7 +1623,7 @@
       </c>
       <c r="D45" s="14" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>ARR,10kV,Line,Arrester Stations</t>
         </is>
       </c>
       <c r="E45" s="14" t="inlineStr">
@@ -1640,18 +1636,18 @@
       </c>
       <c r="G45" s="15" t="inlineStr"/>
       <c r="H45" s="16" t="n">
-        <v>0</v>
+        <v>66.72</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
@@ -1661,7 +1657,7 @@
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
@@ -1670,11 +1666,11 @@
         </is>
       </c>
       <c r="F46" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="47">
@@ -1685,7 +1681,7 @@
       </c>
       <c r="B47" s="14" t="inlineStr">
         <is>
-          <t>ARR-10-LS</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C47" s="14" t="inlineStr">
@@ -1695,7 +1691,7 @@
       </c>
       <c r="D47" s="14" t="inlineStr">
         <is>
-          <t>ARR,10kV,Line,Arrester Stations</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E47" s="14" t="inlineStr">
@@ -1708,7 +1704,7 @@
       </c>
       <c r="G47" s="15" t="inlineStr"/>
       <c r="H47" s="16" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="48">
@@ -1719,7 +1715,7 @@
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
@@ -1729,7 +1725,7 @@
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
@@ -1742,7 +1738,7 @@
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="49">
@@ -1753,7 +1749,7 @@
       </c>
       <c r="B49" s="14" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C49" s="14" t="inlineStr">
@@ -1763,7 +1759,7 @@
       </c>
       <c r="D49" s="14" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E49" s="14" t="inlineStr">
@@ -1776,7 +1772,7 @@
       </c>
       <c r="G49" s="15" t="inlineStr"/>
       <c r="H49" s="16" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="50">
@@ -1787,7 +1783,7 @@
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
@@ -1797,7 +1793,7 @@
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
@@ -1810,7 +1806,7 @@
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="51">
@@ -1821,7 +1817,7 @@
       </c>
       <c r="B51" s="14" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C51" s="14" t="inlineStr">
@@ -1831,7 +1827,7 @@
       </c>
       <c r="D51" s="14" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E51" s="14" t="inlineStr">
@@ -1844,134 +1840,134 @@
       </c>
       <c r="G51" s="15" t="inlineStr"/>
       <c r="H51" s="16" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="9" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B52" s="9" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C52" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D52" s="9" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E52" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F52" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" s="10" t="inlineStr"/>
-      <c r="H52" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="14" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B53" s="14" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C53" s="14" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D53" s="14" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E53" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F53" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" s="15" t="inlineStr"/>
-      <c r="H53" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="12" t="inlineStr">
+      <c r="A52" s="12" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H54" s="13" t="n">
-        <v>0</v>
+      <c r="H52" s="13" t="n">
+        <v>4778.380000000001</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="inlineStr">
+        <is>
+          <t>Friday (07/11/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B56" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C56" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D56" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E56" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F56" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G56" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H56" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="7" t="inlineStr">
-        <is>
-          <t>Friday (07/11/2025)</t>
-        </is>
+      <c r="A57" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B57" s="9" t="inlineStr">
+        <is>
+          <t>CNC-SNB-10</t>
+        </is>
+      </c>
+      <c r="C57" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="inlineStr">
+        <is>
+          <t>CNC,Splice Non-Tension Bare,#336-#1033</t>
+        </is>
+      </c>
+      <c r="E57" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F57" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G57" s="10" t="inlineStr"/>
+      <c r="H57" s="11" t="n">
+        <v>60.87</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B58" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C58" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D58" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E58" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F58" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G58" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H58" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="A58" s="14" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B58" s="14" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C58" s="14" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D58" s="14" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E58" s="14" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F58" s="15" t="n">
+        <v>676</v>
+      </c>
+      <c r="G58" s="15" t="inlineStr"/>
+      <c r="H58" s="16" t="n">
+        <v>1581.84</v>
       </c>
     </row>
     <row r="59">
@@ -1982,7 +1978,7 @@
       </c>
       <c r="B59" s="9" t="inlineStr">
         <is>
-          <t>CNC-SNB-10</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C59" s="9" t="inlineStr">
@@ -1992,7 +1988,7 @@
       </c>
       <c r="D59" s="9" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#336-#1033</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E59" s="9" t="inlineStr">
@@ -2001,11 +1997,11 @@
         </is>
       </c>
       <c r="F59" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G59" s="10" t="inlineStr"/>
       <c r="H59" s="11" t="n">
-        <v>0</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="60">
@@ -2016,7 +2012,7 @@
       </c>
       <c r="B60" s="14" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>DEG-10-PNA</t>
         </is>
       </c>
       <c r="C60" s="14" t="inlineStr">
@@ -2026,20 +2022,20 @@
       </c>
       <c r="D60" s="14" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>DEG,1/0,Primary Neutral Al</t>
         </is>
       </c>
       <c r="E60" s="14" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F60" s="15" t="n">
-        <v>676</v>
+        <v>2</v>
       </c>
       <c r="G60" s="15" t="inlineStr"/>
       <c r="H60" s="16" t="n">
-        <v>0</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="61">
@@ -2050,7 +2046,7 @@
       </c>
       <c r="B61" s="9" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C61" s="9" t="inlineStr">
@@ -2060,7 +2056,7 @@
       </c>
       <c r="D61" s="9" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E61" s="9" t="inlineStr">
@@ -2069,11 +2065,11 @@
         </is>
       </c>
       <c r="F61" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61" s="10" t="inlineStr"/>
       <c r="H61" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="62">
@@ -2084,7 +2080,7 @@
       </c>
       <c r="B62" s="14" t="inlineStr">
         <is>
-          <t>DEG-10-PNA</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C62" s="14" t="inlineStr">
@@ -2094,7 +2090,7 @@
       </c>
       <c r="D62" s="14" t="inlineStr">
         <is>
-          <t>DEG,1/0,Primary Neutral Al</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E62" s="14" t="inlineStr">
@@ -2103,11 +2099,11 @@
         </is>
       </c>
       <c r="F62" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" s="15" t="inlineStr"/>
       <c r="H62" s="16" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="63">
@@ -2118,7 +2114,7 @@
       </c>
       <c r="B63" s="9" t="inlineStr">
         <is>
-          <t>INS-15-D-S-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C63" s="9" t="inlineStr">
@@ -2128,7 +2124,7 @@
       </c>
       <c r="D63" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E63" s="9" t="inlineStr">
@@ -2137,17 +2133,17 @@
         </is>
       </c>
       <c r="F63" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" s="10" t="inlineStr"/>
       <c r="H63" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="14" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B64" s="14" t="inlineStr">
@@ -2175,13 +2171,13 @@
       </c>
       <c r="G64" s="15" t="inlineStr"/>
       <c r="H64" s="16" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B65" s="9" t="inlineStr">
@@ -2209,18 +2205,18 @@
       </c>
       <c r="G65" s="10" t="inlineStr"/>
       <c r="H65" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="14" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B66" s="14" t="inlineStr">
         <is>
-          <t>PLD-EYE-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C66" s="14" t="inlineStr">
@@ -2230,7 +2226,7 @@
       </c>
       <c r="D66" s="14" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E66" s="14" t="inlineStr">
@@ -2239,22 +2235,22 @@
         </is>
       </c>
       <c r="F66" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66" s="15" t="inlineStr"/>
       <c r="H66" s="16" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B67" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C67" s="9" t="inlineStr">
@@ -2264,7 +2260,7 @@
       </c>
       <c r="D67" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E67" s="9" t="inlineStr">
@@ -2277,18 +2273,18 @@
       </c>
       <c r="G67" s="10" t="inlineStr"/>
       <c r="H67" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="14" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B68" s="14" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>ARR-10-LS</t>
         </is>
       </c>
       <c r="C68" s="14" t="inlineStr">
@@ -2298,7 +2294,7 @@
       </c>
       <c r="D68" s="14" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>ARR,10kV,Line,Arrester Stations</t>
         </is>
       </c>
       <c r="E68" s="14" t="inlineStr">
@@ -2311,18 +2307,18 @@
       </c>
       <c r="G68" s="15" t="inlineStr"/>
       <c r="H68" s="16" t="n">
-        <v>0</v>
+        <v>66.72</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B69" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C69" s="9" t="inlineStr">
@@ -2332,7 +2328,7 @@
       </c>
       <c r="D69" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E69" s="9" t="inlineStr">
@@ -2345,18 +2341,18 @@
       </c>
       <c r="G69" s="10" t="inlineStr"/>
       <c r="H69" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="14" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B70" s="14" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C70" s="14" t="inlineStr">
@@ -2366,7 +2362,7 @@
       </c>
       <c r="D70" s="14" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E70" s="14" t="inlineStr">
@@ -2379,18 +2375,18 @@
       </c>
       <c r="G70" s="15" t="inlineStr"/>
       <c r="H70" s="16" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B71" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C71" s="9" t="inlineStr">
@@ -2400,7 +2396,7 @@
       </c>
       <c r="D71" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E71" s="9" t="inlineStr">
@@ -2413,7 +2409,7 @@
       </c>
       <c r="G71" s="10" t="inlineStr"/>
       <c r="H71" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="72">
@@ -2424,7 +2420,7 @@
       </c>
       <c r="B72" s="14" t="inlineStr">
         <is>
-          <t>ARR-10-LS</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C72" s="14" t="inlineStr">
@@ -2434,7 +2430,7 @@
       </c>
       <c r="D72" s="14" t="inlineStr">
         <is>
-          <t>ARR,10kV,Line,Arrester Stations</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E72" s="14" t="inlineStr">
@@ -2447,7 +2443,7 @@
       </c>
       <c r="G72" s="15" t="inlineStr"/>
       <c r="H72" s="16" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="73">
@@ -2458,7 +2454,7 @@
       </c>
       <c r="B73" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C73" s="9" t="inlineStr">
@@ -2468,7 +2464,7 @@
       </c>
       <c r="D73" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E73" s="9" t="inlineStr">
@@ -2481,7 +2477,7 @@
       </c>
       <c r="G73" s="10" t="inlineStr"/>
       <c r="H73" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="74">
@@ -2492,7 +2488,7 @@
       </c>
       <c r="B74" s="14" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C74" s="14" t="inlineStr">
@@ -2502,7 +2498,7 @@
       </c>
       <c r="D74" s="14" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E74" s="14" t="inlineStr">
@@ -2515,7 +2511,7 @@
       </c>
       <c r="G74" s="15" t="inlineStr"/>
       <c r="H74" s="16" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="75">
@@ -2526,7 +2522,7 @@
       </c>
       <c r="B75" s="9" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C75" s="9" t="inlineStr">
@@ -2536,7 +2532,7 @@
       </c>
       <c r="D75" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E75" s="9" t="inlineStr">
@@ -2549,18 +2545,18 @@
       </c>
       <c r="G75" s="10" t="inlineStr"/>
       <c r="H75" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="14" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B76" s="14" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C76" s="14" t="inlineStr">
@@ -2570,7 +2566,7 @@
       </c>
       <c r="D76" s="14" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E76" s="14" t="inlineStr">
@@ -2583,18 +2579,18 @@
       </c>
       <c r="G76" s="15" t="inlineStr"/>
       <c r="H76" s="16" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B77" s="9" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C77" s="9" t="inlineStr">
@@ -2604,7 +2600,7 @@
       </c>
       <c r="D77" s="9" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E77" s="9" t="inlineStr">
@@ -2613,22 +2609,22 @@
         </is>
       </c>
       <c r="F77" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77" s="10" t="inlineStr"/>
       <c r="H77" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="14" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B78" s="14" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C78" s="14" t="inlineStr">
@@ -2638,7 +2634,7 @@
       </c>
       <c r="D78" s="14" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E78" s="14" t="inlineStr">
@@ -2651,18 +2647,18 @@
       </c>
       <c r="G78" s="15" t="inlineStr"/>
       <c r="H78" s="16" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B79" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C79" s="9" t="inlineStr">
@@ -2672,7 +2668,7 @@
       </c>
       <c r="D79" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E79" s="9" t="inlineStr">
@@ -2685,18 +2681,18 @@
       </c>
       <c r="G79" s="10" t="inlineStr"/>
       <c r="H79" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="14" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B80" s="14" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C80" s="14" t="inlineStr">
@@ -2706,7 +2702,7 @@
       </c>
       <c r="D80" s="14" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E80" s="14" t="inlineStr">
@@ -2719,18 +2715,18 @@
       </c>
       <c r="G80" s="15" t="inlineStr"/>
       <c r="H80" s="16" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B81" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C81" s="9" t="inlineStr">
@@ -2740,7 +2736,7 @@
       </c>
       <c r="D81" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E81" s="9" t="inlineStr">
@@ -2753,18 +2749,18 @@
       </c>
       <c r="G81" s="10" t="inlineStr"/>
       <c r="H81" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="14" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B82" s="14" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C82" s="14" t="inlineStr">
@@ -2774,7 +2770,7 @@
       </c>
       <c r="D82" s="14" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E82" s="14" t="inlineStr">
@@ -2787,18 +2783,18 @@
       </c>
       <c r="G82" s="15" t="inlineStr"/>
       <c r="H82" s="16" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="9" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B83" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C83" s="9" t="inlineStr">
@@ -2808,7 +2804,7 @@
       </c>
       <c r="D83" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E83" s="9" t="inlineStr">
@@ -2821,18 +2817,18 @@
       </c>
       <c r="G83" s="10" t="inlineStr"/>
       <c r="H83" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="14" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B84" s="14" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C84" s="14" t="inlineStr">
@@ -2842,7 +2838,7 @@
       </c>
       <c r="D84" s="14" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E84" s="14" t="inlineStr">
@@ -2855,18 +2851,18 @@
       </c>
       <c r="G84" s="15" t="inlineStr"/>
       <c r="H84" s="16" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="9" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B85" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C85" s="9" t="inlineStr">
@@ -2876,7 +2872,7 @@
       </c>
       <c r="D85" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E85" s="9" t="inlineStr">
@@ -2889,18 +2885,18 @@
       </c>
       <c r="G85" s="10" t="inlineStr"/>
       <c r="H85" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="14" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B86" s="14" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C86" s="14" t="inlineStr">
@@ -2910,7 +2906,7 @@
       </c>
       <c r="D86" s="14" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E86" s="14" t="inlineStr">
@@ -2923,18 +2919,18 @@
       </c>
       <c r="G86" s="15" t="inlineStr"/>
       <c r="H86" s="16" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="9" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B87" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C87" s="9" t="inlineStr">
@@ -2944,7 +2940,7 @@
       </c>
       <c r="D87" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E87" s="9" t="inlineStr">
@@ -2957,18 +2953,18 @@
       </c>
       <c r="G87" s="10" t="inlineStr"/>
       <c r="H87" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="14" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B88" s="14" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>ARR-10-LS</t>
         </is>
       </c>
       <c r="C88" s="14" t="inlineStr">
@@ -2978,7 +2974,7 @@
       </c>
       <c r="D88" s="14" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>ARR,10kV,Line,Arrester Stations</t>
         </is>
       </c>
       <c r="E88" s="14" t="inlineStr">
@@ -2991,18 +2987,18 @@
       </c>
       <c r="G88" s="15" t="inlineStr"/>
       <c r="H88" s="16" t="n">
-        <v>0</v>
+        <v>66.72</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="9" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B89" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C89" s="9" t="inlineStr">
@@ -3012,7 +3008,7 @@
       </c>
       <c r="D89" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E89" s="9" t="inlineStr">
@@ -3025,18 +3021,18 @@
       </c>
       <c r="G89" s="10" t="inlineStr"/>
       <c r="H89" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="14" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B90" s="14" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C90" s="14" t="inlineStr">
@@ -3046,7 +3042,7 @@
       </c>
       <c r="D90" s="14" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E90" s="14" t="inlineStr">
@@ -3059,18 +3055,18 @@
       </c>
       <c r="G90" s="15" t="inlineStr"/>
       <c r="H90" s="16" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B91" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C91" s="9" t="inlineStr">
@@ -3080,7 +3076,7 @@
       </c>
       <c r="D91" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E91" s="9" t="inlineStr">
@@ -3093,18 +3089,18 @@
       </c>
       <c r="G91" s="10" t="inlineStr"/>
       <c r="H91" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="14" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B92" s="14" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C92" s="14" t="inlineStr">
@@ -3114,7 +3110,7 @@
       </c>
       <c r="D92" s="14" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E92" s="14" t="inlineStr">
@@ -3127,18 +3123,18 @@
       </c>
       <c r="G92" s="15" t="inlineStr"/>
       <c r="H92" s="16" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 29</t>
         </is>
       </c>
       <c r="B93" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C93" s="9" t="inlineStr">
@@ -3148,7 +3144,7 @@
       </c>
       <c r="D93" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E93" s="9" t="inlineStr">
@@ -3161,7 +3157,7 @@
       </c>
       <c r="G93" s="10" t="inlineStr"/>
       <c r="H93" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="94">
@@ -3172,7 +3168,7 @@
       </c>
       <c r="B94" s="14" t="inlineStr">
         <is>
-          <t>ARR-10-LS</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C94" s="14" t="inlineStr">
@@ -3182,7 +3178,7 @@
       </c>
       <c r="D94" s="14" t="inlineStr">
         <is>
-          <t>ARR,10kV,Line,Arrester Stations</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E94" s="14" t="inlineStr">
@@ -3195,7 +3191,7 @@
       </c>
       <c r="G94" s="15" t="inlineStr"/>
       <c r="H94" s="16" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="95">
@@ -3206,7 +3202,7 @@
       </c>
       <c r="B95" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C95" s="9" t="inlineStr">
@@ -3216,7 +3212,7 @@
       </c>
       <c r="D95" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E95" s="9" t="inlineStr">
@@ -3229,18 +3225,18 @@
       </c>
       <c r="G95" s="10" t="inlineStr"/>
       <c r="H95" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="14" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B96" s="14" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C96" s="14" t="inlineStr">
@@ -3250,7 +3246,7 @@
       </c>
       <c r="D96" s="14" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E96" s="14" t="inlineStr">
@@ -3263,18 +3259,18 @@
       </c>
       <c r="G96" s="15" t="inlineStr"/>
       <c r="H96" s="16" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="9" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B97" s="9" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C97" s="9" t="inlineStr">
@@ -3284,7 +3280,7 @@
       </c>
       <c r="D97" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E97" s="9" t="inlineStr">
@@ -3297,18 +3293,18 @@
       </c>
       <c r="G97" s="10" t="inlineStr"/>
       <c r="H97" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="14" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B98" s="14" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C98" s="14" t="inlineStr">
@@ -3318,7 +3314,7 @@
       </c>
       <c r="D98" s="14" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E98" s="14" t="inlineStr">
@@ -3331,18 +3327,18 @@
       </c>
       <c r="G98" s="15" t="inlineStr"/>
       <c r="H98" s="16" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="9" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B99" s="9" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C99" s="9" t="inlineStr">
@@ -3352,7 +3348,7 @@
       </c>
       <c r="D99" s="9" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E99" s="9" t="inlineStr">
@@ -3361,17 +3357,17 @@
         </is>
       </c>
       <c r="F99" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G99" s="10" t="inlineStr"/>
       <c r="H99" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="14" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B100" s="14" t="inlineStr">
@@ -3399,13 +3395,13 @@
       </c>
       <c r="G100" s="15" t="inlineStr"/>
       <c r="H100" s="16" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="9" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B101" s="9" t="inlineStr">
@@ -3433,13 +3429,13 @@
       </c>
       <c r="G101" s="10" t="inlineStr"/>
       <c r="H101" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="14" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B102" s="14" t="inlineStr">
@@ -3467,13 +3463,13 @@
       </c>
       <c r="G102" s="15" t="inlineStr"/>
       <c r="H102" s="16" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="9" t="inlineStr">
         <is>
-          <t>Point 29</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B103" s="9" t="inlineStr">
@@ -3501,18 +3497,18 @@
       </c>
       <c r="G103" s="10" t="inlineStr"/>
       <c r="H103" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="14" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B104" s="14" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C104" s="14" t="inlineStr">
@@ -3522,7 +3518,7 @@
       </c>
       <c r="D104" s="14" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E104" s="14" t="inlineStr">
@@ -3535,18 +3531,18 @@
       </c>
       <c r="G104" s="15" t="inlineStr"/>
       <c r="H104" s="16" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B105" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
       <c r="C105" s="9" t="inlineStr">
@@ -3556,7 +3552,7 @@
       </c>
       <c r="D105" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E105" s="9" t="inlineStr">
@@ -3569,18 +3565,18 @@
       </c>
       <c r="G105" s="10" t="inlineStr"/>
       <c r="H105" s="11" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="14" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B106" s="14" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C106" s="14" t="inlineStr">
@@ -3590,7 +3586,7 @@
       </c>
       <c r="D106" s="14" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E106" s="14" t="inlineStr">
@@ -3603,18 +3599,18 @@
       </c>
       <c r="G106" s="15" t="inlineStr"/>
       <c r="H106" s="16" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B107" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C107" s="9" t="inlineStr">
@@ -3624,7 +3620,7 @@
       </c>
       <c r="D107" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E107" s="9" t="inlineStr">
@@ -3637,18 +3633,18 @@
       </c>
       <c r="G107" s="10" t="inlineStr"/>
       <c r="H107" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="14" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B108" s="14" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C108" s="14" t="inlineStr">
@@ -3658,7 +3654,7 @@
       </c>
       <c r="D108" s="14" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E108" s="14" t="inlineStr">
@@ -3671,18 +3667,18 @@
       </c>
       <c r="G108" s="15" t="inlineStr"/>
       <c r="H108" s="16" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="9" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B109" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C109" s="9" t="inlineStr">
@@ -3692,7 +3688,7 @@
       </c>
       <c r="D109" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E109" s="9" t="inlineStr">
@@ -3705,28 +3701,28 @@
       </c>
       <c r="G109" s="10" t="inlineStr"/>
       <c r="H109" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="14" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B110" s="14" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>SVC-10-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C110" s="14" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D110" s="14" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>SVC,1/0,Trip,All Alum,Res</t>
         </is>
       </c>
       <c r="E110" s="14" t="inlineStr">
@@ -3739,18 +3735,18 @@
       </c>
       <c r="G110" s="15" t="inlineStr"/>
       <c r="H110" s="16" t="n">
-        <v>0</v>
+        <v>195.83</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="9" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B111" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>SVD-SG10</t>
         </is>
       </c>
       <c r="C111" s="9" t="inlineStr">
@@ -3760,7 +3756,7 @@
       </c>
       <c r="D111" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>SVD, Service Grip, 1/0</t>
         </is>
       </c>
       <c r="E111" s="9" t="inlineStr">
@@ -3773,7 +3769,7 @@
       </c>
       <c r="G111" s="10" t="inlineStr"/>
       <c r="H111" s="11" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="112">
@@ -3784,17 +3780,17 @@
       </c>
       <c r="B112" s="14" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>XFR-25-72-120-1B</t>
         </is>
       </c>
       <c r="C112" s="14" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D112" s="14" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E112" s="14" t="inlineStr">
@@ -3807,28 +3803,28 @@
       </c>
       <c r="G112" s="15" t="inlineStr"/>
       <c r="H112" s="16" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B113" s="9" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C113" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D113" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E113" s="9" t="inlineStr">
@@ -3841,28 +3837,28 @@
       </c>
       <c r="G113" s="10" t="inlineStr"/>
       <c r="H113" s="11" t="n">
-        <v>0</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="14" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B114" s="14" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C114" s="14" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D114" s="14" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E114" s="14" t="inlineStr">
@@ -3875,13 +3871,13 @@
       </c>
       <c r="G114" s="15" t="inlineStr"/>
       <c r="H114" s="16" t="n">
-        <v>0</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B115" s="9" t="inlineStr">
@@ -3891,7 +3887,7 @@
       </c>
       <c r="C115" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D115" s="9" t="inlineStr">
@@ -3909,28 +3905,28 @@
       </c>
       <c r="G115" s="10" t="inlineStr"/>
       <c r="H115" s="11" t="n">
-        <v>0</v>
+        <v>60.43</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="14" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B116" s="14" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C116" s="14" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D116" s="14" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E116" s="14" t="inlineStr">
@@ -3939,32 +3935,32 @@
         </is>
       </c>
       <c r="F116" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G116" s="15" t="inlineStr"/>
       <c r="H116" s="16" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B117" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C117" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D117" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E117" s="9" t="inlineStr">
@@ -3977,28 +3973,28 @@
       </c>
       <c r="G117" s="10" t="inlineStr"/>
       <c r="H117" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="14" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B118" s="14" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C118" s="14" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D118" s="14" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E118" s="14" t="inlineStr">
@@ -4011,13 +4007,13 @@
       </c>
       <c r="G118" s="15" t="inlineStr"/>
       <c r="H118" s="16" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B119" s="9" t="inlineStr">
@@ -4027,7 +4023,7 @@
       </c>
       <c r="C119" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D119" s="9" t="inlineStr">
@@ -4045,28 +4041,28 @@
       </c>
       <c r="G119" s="10" t="inlineStr"/>
       <c r="H119" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="14" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 36</t>
         </is>
       </c>
       <c r="B120" s="14" t="inlineStr">
         <is>
-          <t>SVC-10-TP-AAA-RS</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C120" s="14" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D120" s="14" t="inlineStr">
         <is>
-          <t>SVC,1/0,Trip,All Alum,Res</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E120" s="14" t="inlineStr">
@@ -4079,62 +4075,62 @@
       </c>
       <c r="G120" s="15" t="inlineStr"/>
       <c r="H120" s="16" t="n">
-        <v>0</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B121" s="9" t="inlineStr">
         <is>
-          <t>SVC-VA</t>
+          <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C121" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D121" s="9" t="inlineStr">
         <is>
-          <t>SVC-Virtual Asset Capitalization</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
       <c r="E121" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F121" s="10" t="n">
-        <v>1</v>
+        <v>446</v>
       </c>
       <c r="G121" s="10" t="inlineStr"/>
       <c r="H121" s="11" t="n">
-        <v>0</v>
+        <v>414.78</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="14" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B122" s="14" t="inlineStr">
         <is>
-          <t>SVD-SG10</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C122" s="14" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D122" s="14" t="inlineStr">
         <is>
-          <t>SVD, Service Grip, 1/0</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E122" s="14" t="inlineStr">
@@ -4147,28 +4143,28 @@
       </c>
       <c r="G122" s="15" t="inlineStr"/>
       <c r="H122" s="16" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B123" s="9" t="inlineStr">
         <is>
-          <t>XFR-25-72-120-1B</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C123" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D123" s="9" t="inlineStr">
         <is>
-          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E123" s="9" t="inlineStr">
@@ -4181,18 +4177,18 @@
       </c>
       <c r="G123" s="10" t="inlineStr"/>
       <c r="H123" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="14" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B124" s="14" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>POL-35-5</t>
         </is>
       </c>
       <c r="C124" s="14" t="inlineStr">
@@ -4202,7 +4198,7 @@
       </c>
       <c r="D124" s="14" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>Pole,35ft,Class 5</t>
         </is>
       </c>
       <c r="E124" s="14" t="inlineStr">
@@ -4215,18 +4211,18 @@
       </c>
       <c r="G124" s="15" t="inlineStr"/>
       <c r="H124" s="16" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B125" s="9" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C125" s="9" t="inlineStr">
@@ -4236,7 +4232,7 @@
       </c>
       <c r="D125" s="9" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E125" s="9" t="inlineStr">
@@ -4249,18 +4245,18 @@
       </c>
       <c r="G125" s="10" t="inlineStr"/>
       <c r="H125" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="14" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B126" s="14" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>ANC-DHM-10-84-T1-C</t>
         </is>
       </c>
       <c r="C126" s="14" t="inlineStr">
@@ -4270,7 +4266,7 @@
       </c>
       <c r="D126" s="14" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E126" s="14" t="inlineStr">
@@ -4279,22 +4275,22 @@
         </is>
       </c>
       <c r="F126" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G126" s="15" t="inlineStr"/>
       <c r="H126" s="16" t="n">
-        <v>0</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B127" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C127" s="9" t="inlineStr">
@@ -4304,7 +4300,7 @@
       </c>
       <c r="D127" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E127" s="9" t="inlineStr">
@@ -4317,18 +4313,18 @@
       </c>
       <c r="G127" s="10" t="inlineStr"/>
       <c r="H127" s="11" t="n">
-        <v>0</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="14" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B128" s="14" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C128" s="14" t="inlineStr">
@@ -4338,7 +4334,7 @@
       </c>
       <c r="D128" s="14" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E128" s="14" t="inlineStr">
@@ -4351,18 +4347,18 @@
       </c>
       <c r="G128" s="15" t="inlineStr"/>
       <c r="H128" s="16" t="n">
-        <v>0</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B129" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CON-10-AAA-3-P</t>
         </is>
       </c>
       <c r="C129" s="9" t="inlineStr">
@@ -4372,31 +4368,31 @@
       </c>
       <c r="D129" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
         </is>
       </c>
       <c r="E129" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F129" s="10" t="n">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="G129" s="10" t="inlineStr"/>
       <c r="H129" s="11" t="n">
-        <v>0</v>
+        <v>94.86</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="14" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B130" s="14" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C130" s="14" t="inlineStr">
@@ -4406,7 +4402,7 @@
       </c>
       <c r="D130" s="14" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E130" s="14" t="inlineStr">
@@ -4419,18 +4415,18 @@
       </c>
       <c r="G130" s="15" t="inlineStr"/>
       <c r="H130" s="16" t="n">
-        <v>0</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B131" s="9" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
       <c r="C131" s="9" t="inlineStr">
@@ -4440,7 +4436,7 @@
       </c>
       <c r="D131" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E131" s="9" t="inlineStr">
@@ -4453,18 +4449,18 @@
       </c>
       <c r="G131" s="10" t="inlineStr"/>
       <c r="H131" s="11" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="14" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B132" s="14" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C132" s="14" t="inlineStr">
@@ -4474,7 +4470,7 @@
       </c>
       <c r="D132" s="14" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E132" s="14" t="inlineStr">
@@ -4487,18 +4483,18 @@
       </c>
       <c r="G132" s="15" t="inlineStr"/>
       <c r="H132" s="16" t="n">
-        <v>0</v>
+        <v>60.43</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="9" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B133" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
       <c r="C133" s="9" t="inlineStr">
@@ -4508,7 +4504,7 @@
       </c>
       <c r="D133" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E133" s="9" t="inlineStr">
@@ -4517,22 +4513,22 @@
         </is>
       </c>
       <c r="F133" s="10" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G133" s="10" t="inlineStr"/>
       <c r="H133" s="11" t="n">
-        <v>0</v>
+        <v>71.16</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="14" t="inlineStr">
         <is>
-          <t>Point 36</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B134" s="14" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C134" s="14" t="inlineStr">
@@ -4542,7 +4538,7 @@
       </c>
       <c r="D134" s="14" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E134" s="14" t="inlineStr">
@@ -4555,18 +4551,18 @@
       </c>
       <c r="G134" s="15" t="inlineStr"/>
       <c r="H134" s="16" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="9" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B135" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C135" s="9" t="inlineStr">
@@ -4576,31 +4572,31 @@
       </c>
       <c r="D135" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E135" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F135" s="10" t="n">
-        <v>446</v>
+        <v>1</v>
       </c>
       <c r="G135" s="10" t="inlineStr"/>
       <c r="H135" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="14" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B136" s="14" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C136" s="14" t="inlineStr">
@@ -4610,7 +4606,7 @@
       </c>
       <c r="D136" s="14" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E136" s="14" t="inlineStr">
@@ -4623,18 +4619,18 @@
       </c>
       <c r="G136" s="15" t="inlineStr"/>
       <c r="H136" s="16" t="n">
-        <v>0</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="9" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 38</t>
         </is>
       </c>
       <c r="B137" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>XFR-25-72-120-1B</t>
         </is>
       </c>
       <c r="C137" s="9" t="inlineStr">
@@ -4644,7 +4640,7 @@
       </c>
       <c r="D137" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E137" s="9" t="inlineStr">
@@ -4657,18 +4653,18 @@
       </c>
       <c r="G137" s="10" t="inlineStr"/>
       <c r="H137" s="11" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="14" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B138" s="14" t="inlineStr">
         <is>
-          <t>POL-35-5</t>
+          <t>ANC-DHM-10-84-T1-C</t>
         </is>
       </c>
       <c r="C138" s="14" t="inlineStr">
@@ -4678,7 +4674,7 @@
       </c>
       <c r="D138" s="14" t="inlineStr">
         <is>
-          <t>Pole,35ft,Class 5</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E138" s="14" t="inlineStr">
@@ -4691,18 +4687,18 @@
       </c>
       <c r="G138" s="15" t="inlineStr"/>
       <c r="H138" s="16" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="9" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B139" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
       <c r="C139" s="9" t="inlineStr">
@@ -4712,7 +4708,7 @@
       </c>
       <c r="D139" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E139" s="9" t="inlineStr">
@@ -4725,18 +4721,18 @@
       </c>
       <c r="G139" s="10" t="inlineStr"/>
       <c r="H139" s="11" t="n">
-        <v>0</v>
+        <v>35.58</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="14" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 39</t>
         </is>
       </c>
       <c r="B140" s="14" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>POL-35-5</t>
         </is>
       </c>
       <c r="C140" s="14" t="inlineStr">
@@ -4746,7 +4742,7 @@
       </c>
       <c r="D140" s="14" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>Pole,35ft,Class 5</t>
         </is>
       </c>
       <c r="E140" s="14" t="inlineStr">
@@ -4755,892 +4751,892 @@
         </is>
       </c>
       <c r="F140" s="15" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G140" s="15" t="inlineStr"/>
       <c r="H140" s="16" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="9" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B141" s="9" t="inlineStr">
-        <is>
-          <t>ANC-DHM-10-84-T1-C</t>
-        </is>
-      </c>
-      <c r="C141" s="9" t="inlineStr">
+      <c r="A141" s="12" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H141" s="13" t="n">
+        <v>13259.41000000001</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="7" t="inlineStr">
+        <is>
+          <t>Sunday (07/13/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B145" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C145" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D145" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E145" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F145" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G145" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H145" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B146" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C146" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D146" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E146" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F146" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G146" s="10" t="inlineStr"/>
+      <c r="H146" s="11" t="n">
+        <v>110.36</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="14" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B147" s="14" t="inlineStr">
+        <is>
+          <t>CNC-SNB-2</t>
+        </is>
+      </c>
+      <c r="C147" s="14" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D141" s="9" t="inlineStr">
-        <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
-        </is>
-      </c>
-      <c r="E141" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F141" s="10" t="n">
+      <c r="D147" s="14" t="inlineStr">
+        <is>
+          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
+        </is>
+      </c>
+      <c r="E147" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F147" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G147" s="15" t="inlineStr"/>
+      <c r="H147" s="16" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="9" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B148" s="9" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C148" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D148" s="9" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E148" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F148" s="10" t="n">
+        <v>682</v>
+      </c>
+      <c r="G148" s="10" t="inlineStr"/>
+      <c r="H148" s="11" t="n">
+        <v>634.26</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="14" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B149" s="14" t="inlineStr">
+        <is>
+          <t>DEC-20AL-C</t>
+        </is>
+      </c>
+      <c r="C149" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D149" s="14" t="inlineStr">
+        <is>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+        </is>
+      </c>
+      <c r="E149" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F149" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="G141" s="10" t="inlineStr"/>
-      <c r="H141" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="14" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B142" s="14" t="inlineStr">
-        <is>
-          <t>BKT-AC18-F-C</t>
-        </is>
-      </c>
-      <c r="C142" s="14" t="inlineStr">
+      <c r="G149" s="15" t="inlineStr"/>
+      <c r="H149" s="16" t="n">
+        <v>190.3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="9" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B150" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C150" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D142" s="14" t="inlineStr">
-        <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
-        </is>
-      </c>
-      <c r="E142" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F142" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G142" s="15" t="inlineStr"/>
-      <c r="H142" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="9" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B143" s="9" t="inlineStr">
-        <is>
-          <t>CND-HLC2</t>
-        </is>
-      </c>
-      <c r="C143" s="9" t="inlineStr">
+      <c r="D150" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E150" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F150" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" s="10" t="inlineStr"/>
+      <c r="H150" s="11" t="n">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="14" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B151" s="14" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C151" s="14" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D143" s="9" t="inlineStr">
-        <is>
-          <t>CND,Hot Line clamp #6-#2</t>
-        </is>
-      </c>
-      <c r="E143" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F143" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G143" s="10" t="inlineStr"/>
-      <c r="H143" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="14" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B144" s="14" t="inlineStr">
-        <is>
-          <t>CND-S2</t>
-        </is>
-      </c>
-      <c r="C144" s="14" t="inlineStr">
+      <c r="D151" s="14" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E151" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F151" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G151" s="15" t="inlineStr"/>
+      <c r="H151" s="16" t="n">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="9" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B152" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C152" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D144" s="14" t="inlineStr">
-        <is>
-          <t>CND,Stirrup #2</t>
-        </is>
-      </c>
-      <c r="E144" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F144" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G144" s="15" t="inlineStr"/>
-      <c r="H144" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="9" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B145" s="9" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-3-P</t>
-        </is>
-      </c>
-      <c r="C145" s="9" t="inlineStr">
+      <c r="D152" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E152" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F152" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G152" s="10" t="inlineStr"/>
+      <c r="H152" s="11" t="n">
+        <v>198.88</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="14" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B153" s="14" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C153" s="14" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D145" s="9" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
-        </is>
-      </c>
-      <c r="E145" s="9" t="inlineStr">
+      <c r="D153" s="14" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E153" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F153" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" s="15" t="inlineStr"/>
+      <c r="H153" s="16" t="n">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="9" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B154" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C154" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D154" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E154" s="9" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F145" s="10" t="n">
-        <v>153</v>
-      </c>
-      <c r="G145" s="10" t="inlineStr"/>
-      <c r="H145" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="14" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B146" s="14" t="inlineStr">
-        <is>
-          <t>DEC-20AL-C</t>
-        </is>
-      </c>
-      <c r="C146" s="14" t="inlineStr">
+      <c r="F154" s="10" t="n">
+        <v>686</v>
+      </c>
+      <c r="G154" s="10" t="inlineStr"/>
+      <c r="H154" s="11" t="n">
+        <v>1605.24</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="14" t="inlineStr">
+        <is>
+          <t>Point 04</t>
+        </is>
+      </c>
+      <c r="B155" s="14" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C155" s="14" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D146" s="14" t="inlineStr">
-        <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
-        </is>
-      </c>
-      <c r="E146" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F146" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G146" s="15" t="inlineStr"/>
-      <c r="H146" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="9" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B147" s="9" t="inlineStr">
-        <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
-        </is>
-      </c>
-      <c r="C147" s="9" t="inlineStr">
+      <c r="D155" s="14" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E155" s="14" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F155" s="15" t="n">
+        <v>684</v>
+      </c>
+      <c r="G155" s="15" t="inlineStr"/>
+      <c r="H155" s="16" t="n">
+        <v>636.12</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="9" t="inlineStr">
+        <is>
+          <t>Point 04</t>
+        </is>
+      </c>
+      <c r="B156" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C156" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D147" s="9" t="inlineStr">
-        <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
-        </is>
-      </c>
-      <c r="E147" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F147" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G147" s="10" t="inlineStr"/>
-      <c r="H147" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="14" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B148" s="14" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C148" s="14" t="inlineStr">
+      <c r="D156" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E156" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F156" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G156" s="10" t="inlineStr"/>
+      <c r="H156" s="11" t="n">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="14" t="inlineStr">
+        <is>
+          <t>Point 04</t>
+        </is>
+      </c>
+      <c r="B157" s="14" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C157" s="14" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D148" s="14" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E148" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F148" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G148" s="15" t="inlineStr"/>
-      <c r="H148" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="9" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B149" s="9" t="inlineStr">
-        <is>
-          <t>GYD-MPY</t>
-        </is>
-      </c>
-      <c r="C149" s="9" t="inlineStr">
+      <c r="D157" s="14" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E157" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F157" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G157" s="15" t="inlineStr"/>
+      <c r="H157" s="16" t="n">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="9" t="inlineStr">
+        <is>
+          <t>Point 04</t>
+        </is>
+      </c>
+      <c r="B158" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C158" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D149" s="9" t="inlineStr">
-        <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
-        </is>
-      </c>
-      <c r="E149" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F149" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G149" s="10" t="inlineStr"/>
-      <c r="H149" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="14" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B150" s="14" t="inlineStr">
-        <is>
-          <t>GYF-38-78W-I-C</t>
-        </is>
-      </c>
-      <c r="C150" s="14" t="inlineStr">
+      <c r="D158" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E158" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F158" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G158" s="10" t="inlineStr"/>
+      <c r="H158" s="11" t="n">
+        <v>198.88</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="14" t="inlineStr">
+        <is>
+          <t>Point 04</t>
+        </is>
+      </c>
+      <c r="B159" s="14" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C159" s="14" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D150" s="14" t="inlineStr">
-        <is>
-          <t>GYF,3/8,78Wire mt,Insulator Adder,Corros</t>
-        </is>
-      </c>
-      <c r="E150" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F150" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G150" s="15" t="inlineStr"/>
-      <c r="H150" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="9" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B151" s="9" t="inlineStr">
-        <is>
-          <t>GYF-38-D-42P-EP-C</t>
-        </is>
-      </c>
-      <c r="C151" s="9" t="inlineStr">
+      <c r="D159" s="14" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E159" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F159" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G159" s="15" t="inlineStr"/>
+      <c r="H159" s="16" t="n">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B160" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C160" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D160" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E160" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F160" s="10" t="n">
+        <v>688</v>
+      </c>
+      <c r="G160" s="10" t="inlineStr"/>
+      <c r="H160" s="11" t="n">
+        <v>1609.92</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="14" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B161" s="14" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C161" s="14" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D151" s="9" t="inlineStr">
-        <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
-        </is>
-      </c>
-      <c r="E151" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F151" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G151" s="10" t="inlineStr"/>
-      <c r="H151" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="14" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B152" s="14" t="inlineStr">
-        <is>
-          <t>GYW-38C</t>
-        </is>
-      </c>
-      <c r="C152" s="14" t="inlineStr">
+      <c r="D161" s="14" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E161" s="14" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F161" s="15" t="n">
+        <v>684</v>
+      </c>
+      <c r="G161" s="15" t="inlineStr"/>
+      <c r="H161" s="16" t="n">
+        <v>636.12</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B162" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C162" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D152" s="14" t="inlineStr">
-        <is>
-          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
-        </is>
-      </c>
-      <c r="E152" s="14" t="inlineStr">
+      <c r="D162" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E162" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F162" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G162" s="10" t="inlineStr"/>
+      <c r="H162" s="11" t="n">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="14" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B163" s="14" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C163" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D163" s="14" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E163" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F163" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G163" s="15" t="inlineStr"/>
+      <c r="H163" s="16" t="n">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B164" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C164" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D164" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E164" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F164" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G164" s="10" t="inlineStr"/>
+      <c r="H164" s="11" t="n">
+        <v>198.88</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="14" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B165" s="14" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C165" s="14" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D165" s="14" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E165" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F165" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G165" s="15" t="inlineStr"/>
+      <c r="H165" s="16" t="n">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="9" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B166" s="9" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C166" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D166" s="9" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E166" s="9" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F152" s="15" t="n">
-        <v>80</v>
-      </c>
-      <c r="G152" s="15" t="inlineStr"/>
-      <c r="H152" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="9" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B153" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-D-S-C</t>
-        </is>
-      </c>
-      <c r="C153" s="9" t="inlineStr">
+      <c r="F166" s="10" t="n">
+        <v>694</v>
+      </c>
+      <c r="G166" s="10" t="inlineStr"/>
+      <c r="H166" s="11" t="n">
+        <v>645.42</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="14" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B167" s="14" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C167" s="14" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D153" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E153" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F153" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G153" s="10" t="inlineStr"/>
-      <c r="H153" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="14" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B154" s="14" t="inlineStr">
-        <is>
-          <t>PLD-EYE-C</t>
-        </is>
-      </c>
-      <c r="C154" s="14" t="inlineStr">
+      <c r="D167" s="14" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E167" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F167" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G167" s="15" t="inlineStr"/>
+      <c r="H167" s="16" t="n">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="9" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B168" s="9" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C168" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D154" s="14" t="inlineStr">
-        <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
-        </is>
-      </c>
-      <c r="E154" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F154" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="G154" s="15" t="inlineStr"/>
-      <c r="H154" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="9" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B155" s="9" t="inlineStr">
+      <c r="D168" s="9" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E168" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F168" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G168" s="10" t="inlineStr"/>
+      <c r="H168" s="11" t="n">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="14" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B169" s="14" t="inlineStr">
         <is>
           <t>POL-40-4</t>
         </is>
       </c>
-      <c r="C155" s="9" t="inlineStr">
+      <c r="C169" s="14" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D155" s="9" t="inlineStr">
+      <c r="D169" s="14" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 4</t>
         </is>
       </c>
-      <c r="E155" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F155" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G155" s="10" t="inlineStr"/>
-      <c r="H155" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="14" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B156" s="14" t="inlineStr">
-        <is>
-          <t>SAA-DE-20-C</t>
-        </is>
-      </c>
-      <c r="C156" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D156" s="14" t="inlineStr">
-        <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
-        </is>
-      </c>
-      <c r="E156" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F156" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G156" s="15" t="inlineStr"/>
-      <c r="H156" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="9" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B157" s="9" t="inlineStr">
-        <is>
-          <t>XCO-27-100-8-C</t>
-        </is>
-      </c>
-      <c r="C157" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D157" s="9" t="inlineStr">
-        <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
-        </is>
-      </c>
-      <c r="E157" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F157" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G157" s="10" t="inlineStr"/>
-      <c r="H157" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="14" t="inlineStr">
-        <is>
-          <t>Point 38</t>
-        </is>
-      </c>
-      <c r="B158" s="14" t="inlineStr">
-        <is>
-          <t>XFR-25-72-120-1B</t>
-        </is>
-      </c>
-      <c r="C158" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D158" s="14" t="inlineStr">
-        <is>
-          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
-        </is>
-      </c>
-      <c r="E158" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F158" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G158" s="15" t="inlineStr"/>
-      <c r="H158" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="9" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B159" s="9" t="inlineStr">
-        <is>
-          <t>ANC-DHM-10-84-T1-C</t>
-        </is>
-      </c>
-      <c r="C159" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D159" s="9" t="inlineStr">
-        <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
-        </is>
-      </c>
-      <c r="E159" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F159" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G159" s="10" t="inlineStr"/>
-      <c r="H159" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="14" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B160" s="14" t="inlineStr">
-        <is>
-          <t>GYD-MPY</t>
-        </is>
-      </c>
-      <c r="C160" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D160" s="14" t="inlineStr">
-        <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
-        </is>
-      </c>
-      <c r="E160" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F160" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G160" s="15" t="inlineStr"/>
-      <c r="H160" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="9" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B161" s="9" t="inlineStr">
-        <is>
-          <t>GYF-38-D-78P-EP-C</t>
-        </is>
-      </c>
-      <c r="C161" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D161" s="9" t="inlineStr">
-        <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
-        </is>
-      </c>
-      <c r="E161" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F161" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G161" s="10" t="inlineStr"/>
-      <c r="H161" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="14" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B162" s="14" t="inlineStr">
-        <is>
-          <t>GYW-38C</t>
-        </is>
-      </c>
-      <c r="C162" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D162" s="14" t="inlineStr">
-        <is>
-          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
-        </is>
-      </c>
-      <c r="E162" s="14" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F162" s="15" t="n">
-        <v>40</v>
-      </c>
-      <c r="G162" s="15" t="inlineStr"/>
-      <c r="H162" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="9" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B163" s="9" t="inlineStr">
-        <is>
-          <t>PLD-EYE-C</t>
-        </is>
-      </c>
-      <c r="C163" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D163" s="9" t="inlineStr">
-        <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
-        </is>
-      </c>
-      <c r="E163" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F163" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G163" s="10" t="inlineStr"/>
-      <c r="H163" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="14" t="inlineStr">
-        <is>
-          <t>Point 39</t>
-        </is>
-      </c>
-      <c r="B164" s="14" t="inlineStr">
-        <is>
-          <t>POL-35-5</t>
-        </is>
-      </c>
-      <c r="C164" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D164" s="14" t="inlineStr">
-        <is>
-          <t>Pole,35ft,Class 5</t>
-        </is>
-      </c>
-      <c r="E164" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F164" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G164" s="15" t="inlineStr"/>
-      <c r="H164" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="12" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H165" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="7" t="inlineStr">
-        <is>
-          <t>Sunday (07/13/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B169" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C169" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D169" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E169" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F169" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G169" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H169" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="E169" s="14" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F169" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G169" s="15" t="inlineStr"/>
+      <c r="H169" s="16" t="n">
+        <v>198.88</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B170" s="9" t="inlineStr">
@@ -5650,7 +5646,7 @@
       </c>
       <c r="C170" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D170" s="9" t="inlineStr">
@@ -5664,22 +5660,22 @@
         </is>
       </c>
       <c r="F170" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G170" s="10" t="inlineStr"/>
       <c r="H170" s="11" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="14" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B171" s="14" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C171" s="14" t="inlineStr">
@@ -5689,1207 +5685,51 @@
       </c>
       <c r="D171" s="14" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E171" s="14" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F171" s="15" t="n">
-        <v>6</v>
+        <v>683</v>
       </c>
       <c r="G171" s="15" t="inlineStr"/>
       <c r="H171" s="16" t="n">
-        <v>0</v>
+        <v>1598.22</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="9" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B172" s="9" t="inlineStr">
-        <is>
-          <t>CNC-SNB-2</t>
-        </is>
-      </c>
-      <c r="C172" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D172" s="9" t="inlineStr">
-        <is>
-          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
-        </is>
-      </c>
-      <c r="E172" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F172" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G172" s="10" t="inlineStr"/>
-      <c r="H172" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="14" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B173" s="14" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C173" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D173" s="14" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
-        </is>
-      </c>
-      <c r="E173" s="14" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F173" s="15" t="n">
-        <v>682</v>
-      </c>
-      <c r="G173" s="15" t="inlineStr"/>
-      <c r="H173" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="9" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B174" s="9" t="inlineStr">
-        <is>
-          <t>DEC-20AL-C</t>
-        </is>
-      </c>
-      <c r="C174" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D174" s="9" t="inlineStr">
-        <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
-        </is>
-      </c>
-      <c r="E174" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F174" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G174" s="10" t="inlineStr"/>
-      <c r="H174" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="14" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B175" s="14" t="inlineStr">
-        <is>
-          <t>INS-15-D-S-C</t>
-        </is>
-      </c>
-      <c r="C175" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D175" s="14" t="inlineStr">
-        <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E175" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F175" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G175" s="15" t="inlineStr"/>
-      <c r="H175" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="9" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B176" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C176" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D176" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E176" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F176" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G176" s="10" t="inlineStr"/>
-      <c r="H176" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="14" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B177" s="14" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C177" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D177" s="14" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E177" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F177" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G177" s="15" t="inlineStr"/>
-      <c r="H177" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="9" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B178" s="9" t="inlineStr">
-        <is>
-          <t>PLD-EYE-C</t>
-        </is>
-      </c>
-      <c r="C178" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D178" s="9" t="inlineStr">
-        <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
-        </is>
-      </c>
-      <c r="E178" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F178" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G178" s="10" t="inlineStr"/>
-      <c r="H178" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="14" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B179" s="14" t="inlineStr">
-        <is>
-          <t>POL-40-4</t>
-        </is>
-      </c>
-      <c r="C179" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D179" s="14" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 4</t>
-        </is>
-      </c>
-      <c r="E179" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F179" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G179" s="15" t="inlineStr"/>
-      <c r="H179" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="9" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B180" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C180" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D180" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E180" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F180" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G180" s="10" t="inlineStr"/>
-      <c r="H180" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="14" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B181" s="14" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C181" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D181" s="14" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E181" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F181" s="15" t="n">
-        <v>6</v>
-      </c>
-      <c r="G181" s="15" t="inlineStr"/>
-      <c r="H181" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="9" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B182" s="9" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C182" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D182" s="9" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E182" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F182" s="10" t="n">
-        <v>686</v>
-      </c>
-      <c r="G182" s="10" t="inlineStr"/>
-      <c r="H182" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="14" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B183" s="14" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C183" s="14" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D183" s="14" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E183" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F183" s="15" t="n">
-        <v>12</v>
-      </c>
-      <c r="G183" s="15" t="inlineStr"/>
-      <c r="H183" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="9" t="inlineStr">
-        <is>
-          <t>Point 04</t>
-        </is>
-      </c>
-      <c r="B184" s="9" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C184" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D184" s="9" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
-        </is>
-      </c>
-      <c r="E184" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F184" s="10" t="n">
-        <v>684</v>
-      </c>
-      <c r="G184" s="10" t="inlineStr"/>
-      <c r="H184" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="14" t="inlineStr">
-        <is>
-          <t>Point 04</t>
-        </is>
-      </c>
-      <c r="B185" s="14" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C185" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D185" s="14" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E185" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F185" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G185" s="15" t="inlineStr"/>
-      <c r="H185" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="9" t="inlineStr">
-        <is>
-          <t>Point 04</t>
-        </is>
-      </c>
-      <c r="B186" s="9" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C186" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D186" s="9" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E186" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F186" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G186" s="10" t="inlineStr"/>
-      <c r="H186" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="14" t="inlineStr">
-        <is>
-          <t>Point 04</t>
-        </is>
-      </c>
-      <c r="B187" s="14" t="inlineStr">
-        <is>
-          <t>POL-40-4</t>
-        </is>
-      </c>
-      <c r="C187" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D187" s="14" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 4</t>
-        </is>
-      </c>
-      <c r="E187" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F187" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G187" s="15" t="inlineStr"/>
-      <c r="H187" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="9" t="inlineStr">
-        <is>
-          <t>Point 04</t>
-        </is>
-      </c>
-      <c r="B188" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C188" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D188" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E188" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F188" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G188" s="10" t="inlineStr"/>
-      <c r="H188" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="14" t="inlineStr">
-        <is>
-          <t>Point 04</t>
-        </is>
-      </c>
-      <c r="B189" s="14" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C189" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D189" s="14" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E189" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F189" s="15" t="n">
-        <v>12</v>
-      </c>
-      <c r="G189" s="15" t="inlineStr"/>
-      <c r="H189" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B190" s="9" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C190" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D190" s="9" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E190" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F190" s="10" t="n">
-        <v>688</v>
-      </c>
-      <c r="G190" s="10" t="inlineStr"/>
-      <c r="H190" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="14" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B191" s="14" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C191" s="14" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D191" s="14" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E191" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F191" s="15" t="n">
-        <v>12</v>
-      </c>
-      <c r="G191" s="15" t="inlineStr"/>
-      <c r="H191" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="9" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B192" s="9" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C192" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D192" s="9" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
-        </is>
-      </c>
-      <c r="E192" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F192" s="10" t="n">
-        <v>684</v>
-      </c>
-      <c r="G192" s="10" t="inlineStr"/>
-      <c r="H192" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="14" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B193" s="14" t="inlineStr">
-        <is>
-          <t>GND-MD</t>
-        </is>
-      </c>
-      <c r="C193" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D193" s="14" t="inlineStr">
-        <is>
-          <t>GND,Wire Mldg Only</t>
-        </is>
-      </c>
-      <c r="E193" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F193" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G193" s="15" t="inlineStr"/>
-      <c r="H193" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="9" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B194" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C194" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D194" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E194" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F194" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G194" s="10" t="inlineStr"/>
-      <c r="H194" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="14" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B195" s="14" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C195" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D195" s="14" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E195" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F195" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G195" s="15" t="inlineStr"/>
-      <c r="H195" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="9" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B196" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-4</t>
-        </is>
-      </c>
-      <c r="C196" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D196" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 4</t>
-        </is>
-      </c>
-      <c r="E196" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F196" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G196" s="10" t="inlineStr"/>
-      <c r="H196" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="14" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B197" s="14" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C197" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D197" s="14" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E197" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F197" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G197" s="15" t="inlineStr"/>
-      <c r="H197" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="9" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B198" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C198" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D198" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E198" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F198" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G198" s="10" t="inlineStr"/>
-      <c r="H198" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="14" t="inlineStr">
-        <is>
-          <t>Point 08</t>
-        </is>
-      </c>
-      <c r="B199" s="14" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C199" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D199" s="14" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
-        </is>
-      </c>
-      <c r="E199" s="14" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F199" s="15" t="n">
-        <v>694</v>
-      </c>
-      <c r="G199" s="15" t="inlineStr"/>
-      <c r="H199" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="9" t="inlineStr">
-        <is>
-          <t>Point 08</t>
-        </is>
-      </c>
-      <c r="B200" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C200" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D200" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E200" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F200" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G200" s="10" t="inlineStr"/>
-      <c r="H200" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="14" t="inlineStr">
-        <is>
-          <t>Point 08</t>
-        </is>
-      </c>
-      <c r="B201" s="14" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C201" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D201" s="14" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E201" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F201" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G201" s="15" t="inlineStr"/>
-      <c r="H201" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="9" t="inlineStr">
-        <is>
-          <t>Point 08</t>
-        </is>
-      </c>
-      <c r="B202" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-4</t>
-        </is>
-      </c>
-      <c r="C202" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D202" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 4</t>
-        </is>
-      </c>
-      <c r="E202" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F202" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G202" s="10" t="inlineStr"/>
-      <c r="H202" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="14" t="inlineStr">
-        <is>
-          <t>Point 08</t>
-        </is>
-      </c>
-      <c r="B203" s="14" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C203" s="14" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D203" s="14" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E203" s="14" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F203" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G203" s="15" t="inlineStr"/>
-      <c r="H203" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="9" t="inlineStr">
-        <is>
-          <t>Point 08</t>
-        </is>
-      </c>
-      <c r="B204" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C204" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D204" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E204" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F204" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G204" s="10" t="inlineStr"/>
-      <c r="H204" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="14" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B205" s="14" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C205" s="14" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D205" s="14" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E205" s="14" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F205" s="15" t="n">
-        <v>683</v>
-      </c>
-      <c r="G205" s="15" t="inlineStr"/>
-      <c r="H205" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="12" t="inlineStr">
+      <c r="A172" s="12" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H206" s="13" t="n">
-        <v>0</v>
+      <c r="H172" s="13" t="n">
+        <v>8782.609999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A141:G141"/>
+    <mergeCell ref="A144:H144"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A55:H55"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="A206:G206"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A172:G172"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A165:G165"/>
+    <mergeCell ref="A52:G52"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A168:H168"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
